--- a/Ontologies/data.xlsx
+++ b/Ontologies/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="632">
   <si>
     <t>Action</t>
   </si>
@@ -1346,13 +1346,583 @@
   </si>
   <si>
     <t>carving wood</t>
+  </si>
+  <si>
+    <t>wrangler</t>
+  </si>
+  <si>
+    <t>31339ee4-5755-4c42-80ef-784caf9e8898</t>
+  </si>
+  <si>
+    <t>strucking stone</t>
+  </si>
+  <si>
+    <t>Mount Brilliantartemesia</t>
+  </si>
+  <si>
+    <t>e385caf3-06b3-456e-ac64-ee63c48a33d7</t>
+  </si>
+  <si>
+    <t>e385caf3-06b3-456e-ac64-ee63c48a33d8</t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q25365</t>
+  </si>
+  <si>
+    <t>endsquare</t>
+  </si>
+  <si>
+    <t>2e71a0da-ad2c-4da2-9d2d-8ae756bb88ff</t>
+  </si>
+  <si>
+    <t>outbreaks of arson</t>
+  </si>
+  <si>
+    <t>sky-dog</t>
+  </si>
+  <si>
+    <t>yowling</t>
+  </si>
+  <si>
+    <t>against misfortune</t>
+  </si>
+  <si>
+    <t>c5eeda0e-6e56-4cd8-9b7e-ef1537d9374a</t>
+  </si>
+  <si>
+    <t>Mount Shade</t>
+  </si>
+  <si>
+    <t>b7b9ba7a-0e20-4424-ab47-6cc137fe49b1</t>
+  </si>
+  <si>
+    <t>proudprowl</t>
+  </si>
+  <si>
+    <t>c0dc1e79-53b3-40bc-bb48-15cceb9de1b7</t>
+  </si>
+  <si>
+    <t>hair like</t>
+  </si>
+  <si>
+    <t>uri of things</t>
+  </si>
+  <si>
+    <t>raincoat</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q2018769</t>
+  </si>
+  <si>
+    <t>Mount Threeperil</t>
+  </si>
+  <si>
+    <t>a306b2e1-62b1-42b1-aa9b-ac08e9a5d254</t>
+  </si>
+  <si>
+    <t>921c7597-dc5b-4c40-8fdd-877be8d9e292</t>
+  </si>
+  <si>
+    <t>body number</t>
+  </si>
+  <si>
+    <t>a306b2e1-62b1-42b1-aa9b-ac08e9a5d255</t>
+  </si>
+  <si>
+    <t>bawler</t>
+  </si>
+  <si>
+    <t>ba92f8da-6985-4278-ba23-902ad134a897</t>
+  </si>
+  <si>
+    <t>all sounds putting together</t>
+  </si>
+  <si>
+    <t>cure jaundice</t>
+  </si>
+  <si>
+    <t>Mount Wingwatch</t>
+  </si>
+  <si>
+    <t>f282bf05-d463-4e3a-8f20-5620ffe4a4a0</t>
+  </si>
+  <si>
+    <t>f282bf05-d463-4e3a-8f20-5620ffe4a4a1</t>
+  </si>
+  <si>
+    <t>mocking-crow</t>
+  </si>
+  <si>
+    <t>0890f94e-5fd0-4b07-8e66-3be2f90670f6</t>
+  </si>
+  <si>
+    <t>crow</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q388450</t>
+  </si>
+  <si>
+    <t>good at laughing</t>
+  </si>
+  <si>
+    <t>prevent nightmare</t>
+  </si>
+  <si>
+    <t>fly with throat feathers</t>
+  </si>
+  <si>
+    <t>prevent twitchy eyes</t>
+  </si>
+  <si>
+    <t>Mount Upstretch</t>
+  </si>
+  <si>
+    <t>a6ac0ad8-a8a7-458b-ace6-ecdc462e7345</t>
+  </si>
+  <si>
+    <t>beaver</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q47542</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q26018</t>
+  </si>
+  <si>
+    <t>turtle</t>
+  </si>
+  <si>
+    <t>River Clear</t>
+  </si>
+  <si>
+    <t>Mount Hard</t>
+  </si>
+  <si>
+    <t>bf7b4346-27c2-4341-a286-a1dd7d0e5d4e</t>
+  </si>
+  <si>
+    <t>57d2c94f-40b3-4084-9926-dce6c0f96107</t>
+  </si>
+  <si>
+    <t>lag-remain fish</t>
+  </si>
+  <si>
+    <t>fc264c8a-796f-4cc2-a0da-48cedbf30d33</t>
+  </si>
+  <si>
+    <t>eye like</t>
+  </si>
+  <si>
+    <t>horse ear</t>
+  </si>
+  <si>
+    <t>ade59aae-1623-450d-855f-5080a37b4d2d</t>
+  </si>
+  <si>
+    <t>stop from being blinded by dust</t>
+  </si>
+  <si>
+    <t>Mount Braveboot</t>
+  </si>
+  <si>
+    <t>River Meander</t>
+  </si>
+  <si>
+    <t>7b10ea38-35ce-4362-bfbb-24424360fafd</t>
+  </si>
+  <si>
+    <t>cc15f6ef-c7b0-447e-864a-c000f27ab4d2</t>
+  </si>
+  <si>
+    <t>tiger fangs</t>
+  </si>
+  <si>
+    <t>da805e19-0cc7-402d-9f1a-1a3fdb95d077</t>
+  </si>
+  <si>
+    <t>drumbeatp</t>
+  </si>
+  <si>
+    <t>piebald</t>
+  </si>
+  <si>
+    <t>59400544-dbfe-4958-9fbd-1be2d58c0274</t>
+  </si>
+  <si>
+    <t>feeds on tigers and leopards</t>
+  </si>
+  <si>
+    <t>Mount Midtwist</t>
+  </si>
+  <si>
+    <t>014b1745-0f91-4821-9f79-2f75f80d4ee8</t>
+  </si>
+  <si>
+    <t>against weapons</t>
+  </si>
+  <si>
+    <t>exhaust-rare</t>
+  </si>
+  <si>
+    <t>a3ee099f-162d-405d-b8e2-687710622fca</t>
+  </si>
+  <si>
+    <t>hedgehog spines</t>
+  </si>
+  <si>
+    <t>f7b4bb8f-fd7f-4b24-af97-3664219dac5b</t>
+  </si>
+  <si>
+    <t>howling dog</t>
+  </si>
+  <si>
+    <t>Mount Batonton</t>
+  </si>
+  <si>
+    <t>4c762ce4-c5c1-4239-a646-a80511e05dae</t>
+  </si>
+  <si>
+    <t>River Misty</t>
+  </si>
+  <si>
+    <t>f89053b8-4904-4253-acc2-d53174522e71</t>
+  </si>
+  <si>
+    <t>flying-fish</t>
+  </si>
+  <si>
+    <t>f978d5f9-5b39-4881-ae0f-928e8315cc54</t>
+  </si>
+  <si>
+    <t>sturgeon</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q181871</t>
+  </si>
+  <si>
+    <t>Mount Birdrat-sharecave</t>
+  </si>
+  <si>
+    <t>feb716fd-0029-40df-b6b4-3f5ce16c6247</t>
+  </si>
+  <si>
+    <t>River Rapids</t>
+  </si>
+  <si>
+    <t>0e3a9f06-296e-42a6-8fb6-2414b2bf93e2</t>
+  </si>
+  <si>
+    <t>feb716fd-0029-40df-b6b4-3f5ce16c6248</t>
+  </si>
+  <si>
+    <t>River Overspill</t>
+  </si>
+  <si>
+    <t>af0c0689-2543-487b-a9bb-7265481fec05</t>
+  </si>
+  <si>
+    <t>such-like fish</t>
+  </si>
+  <si>
+    <t>b71401b9-5c5f-4c42-b9d2-cc2c756fb7ee</t>
+  </si>
+  <si>
+    <t>upturned pan</t>
+  </si>
+  <si>
+    <t>07b995e9-f007-4723-bdc4-c6495bee0e72</t>
+  </si>
+  <si>
+    <t>chiming stones</t>
+  </si>
+  <si>
+    <t>give birth to pearly jade</t>
+  </si>
+  <si>
+    <t>which-lake</t>
+  </si>
+  <si>
+    <t>a0e39b33-5461-4ce3-a254-251f13ebaa23</t>
+  </si>
+  <si>
+    <t>enjoys giving human a lift</t>
+  </si>
+  <si>
+    <t>Mount Hiddenabyss</t>
+  </si>
+  <si>
+    <t>05a5dbda-a1ba-41be-86a7-a71db3ad805a</t>
+  </si>
+  <si>
+    <t>lacuna</t>
+  </si>
+  <si>
+    <t>83c4fd26-bedc-4765-ae57-a3d0b6aca74b</t>
+  </si>
+  <si>
+    <t>body like</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1367</t>
+  </si>
+  <si>
+    <t>monkey</t>
+  </si>
+  <si>
+    <t>glossy fish</t>
+  </si>
+  <si>
+    <t>86565d52-1bd4-4c75-a6d0-fbc9be10965d</t>
+  </si>
+  <si>
+    <t>eel</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q128685</t>
+  </si>
+  <si>
+    <t>scarlet back</t>
+  </si>
+  <si>
+    <t>0f40f886-2248-45ec-89e6-a63c58a258e9</t>
+  </si>
+  <si>
+    <t>plane-tree</t>
+  </si>
+  <si>
+    <t>cure a tumour</t>
+  </si>
+  <si>
+    <t>hippopotamus</t>
+  </si>
+  <si>
+    <t>5e84442e-79fb-4af6-8d89-f79d07f35e16</t>
+  </si>
+  <si>
+    <t>markings on forelegs</t>
+  </si>
+  <si>
+    <t>92115d2c-1320-4842-a90b-2a6a3d694085</t>
+  </si>
+  <si>
+    <t>human shout</t>
+  </si>
+  <si>
+    <t>Mount Seeksuch</t>
+  </si>
+  <si>
+    <t>fc787fdf-e248-4ca5-90fd-1cf1ac95970d</t>
+  </si>
+  <si>
+    <t>River Gloss</t>
+  </si>
+  <si>
+    <t>8cc729c4-5fc8-48c9-af10-092822e9cbbc</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q727</t>
+  </si>
+  <si>
+    <t>ugly-coarse</t>
+  </si>
+  <si>
+    <t>a94446b7-c275-404d-94a1-a7c096f4b2f0</t>
+  </si>
+  <si>
+    <t>horn has hard griding hell</t>
+  </si>
+  <si>
+    <t>Mount Belt</t>
+  </si>
+  <si>
+    <t>1cd1bb39-2655-46f6-b530-fdb65e1c7fe8</t>
+  </si>
+  <si>
+    <t>rare-me</t>
+  </si>
+  <si>
+    <t>9b811d2f-2960-4af6-b1d1-3aa3902ac1b1</t>
+  </si>
+  <si>
+    <t>multicolored</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q29572385</t>
+  </si>
+  <si>
+    <t>prevent carbuncles</t>
+  </si>
+  <si>
+    <t>1cd1bb39-2655-46f6-b530-fdb65e1c7fe9</t>
+  </si>
+  <si>
+    <t>1cd1bb39-2655-46f6-b530-fdb65e1c7fe10</t>
+  </si>
+  <si>
+    <t>River Robust</t>
+  </si>
+  <si>
+    <t>1c854285-5a26-4cad-8fc7-0bdeb0f6ac9e</t>
+  </si>
+  <si>
+    <t>sudden-fish</t>
+  </si>
+  <si>
+    <t>1c453448-e665-4aa0-a26b-5d1cbd447264</t>
+  </si>
+  <si>
+    <t>down colour</t>
+  </si>
+  <si>
+    <t>uri of color</t>
+  </si>
+  <si>
+    <t>cure depression</t>
+  </si>
+  <si>
+    <t>Mount Burnbright</t>
+  </si>
+  <si>
+    <t>River Burining</t>
+  </si>
+  <si>
+    <t>9229a2d5-ff96-4106-9206-f8d49a8cc61b</t>
+  </si>
+  <si>
+    <t>ead6cb38-e19e-431b-8255-1d1d6013fca8</t>
+  </si>
+  <si>
+    <t>what-not fish</t>
+  </si>
+  <si>
+    <t>c63c4b28-704c-4a84-ba84-8131aad49a93</t>
+  </si>
+  <si>
+    <t>cure cancerous growths</t>
+  </si>
+  <si>
+    <t>93c9a3bf-ed2b-4bd4-9032-78c4bc8fc6cc</t>
+  </si>
+  <si>
+    <t>wild-carob</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q1223829</t>
+  </si>
+  <si>
+    <t>Moeunt Dripglare</t>
+  </si>
+  <si>
+    <t>River Hubbub</t>
+  </si>
+  <si>
+    <t>loach fish</t>
+  </si>
+  <si>
+    <t>scales on tips of feathers</t>
+  </si>
+  <si>
+    <t>prevent jaundice</t>
+  </si>
+  <si>
+    <t>Mount Clawmark</t>
+  </si>
+  <si>
+    <t>43ca577e-2e04-400b-8673-e0915ae0895e</t>
+  </si>
+  <si>
+    <t>lodge-bird</t>
+  </si>
+  <si>
+    <t>d8e32c5a-1147-4f08-8f6b-fcc000bf3e7b</t>
+  </si>
+  <si>
+    <t>Mount Cinnabarincense</t>
+  </si>
+  <si>
+    <t>38f420d5-fa56-4abb-b5c5-761949682b9a</t>
+  </si>
+  <si>
+    <t>ear-rat</t>
+  </si>
+  <si>
+    <t>4b83e864-94ab-4aa6-a1ab-e770237a7d52</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q26019</t>
+  </si>
+  <si>
+    <t>hare</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q46076</t>
+  </si>
+  <si>
+    <t>elk</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q180404</t>
+  </si>
+  <si>
+    <t>flies with tail</t>
+  </si>
+  <si>
+    <t>prevent enlarged belly</t>
+  </si>
+  <si>
+    <t>against hundred poisons</t>
+  </si>
+  <si>
+    <t>Mount Stonethat</t>
+  </si>
+  <si>
+    <t>95e90dc1-9b8a-4401-abaa-4f683d9f0088</t>
+  </si>
+  <si>
+    <t>wild-pole</t>
+  </si>
+  <si>
+    <t>72979eec-c569-4804-b519-b527142c03c2</t>
+  </si>
+  <si>
+    <t>markings on its forehead</t>
+  </si>
+  <si>
+    <t>fffee91a-f5b8-4d2f-951e-e929669cac59</t>
+  </si>
+  <si>
+    <t>good at crouching</t>
+  </si>
+  <si>
+    <t>Mount Edgespring</t>
+  </si>
+  <si>
+    <t>a7f2c12f-8a10-4769-ac47-863637c46d7a</t>
+  </si>
+  <si>
+    <t>hidden-quail</t>
+  </si>
+  <si>
+    <t>fef1d9d7-683d-4588-9fdc-8aee14a1a8b9</t>
+  </si>
+  <si>
+    <t>has stripe</t>
+  </si>
+  <si>
+    <t>good at laughing, see people then go to sleep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1387,8 +1957,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1399,6 +1977,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1439,11 +2022,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1499,10 +2083,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1780,13 +2377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB4845D-5E5C-444C-AF8F-40A9E58958FB}">
-  <dimension ref="A1:CH156"/>
+  <dimension ref="A1:CR156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="39.77734375" customWidth="1"/>
@@ -1795,76 +2392,84 @@
     <col min="6" max="6" width="42.33203125" customWidth="1"/>
     <col min="7" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="36.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="37.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1"/>
-    <col min="13" max="13" width="38.44140625" customWidth="1"/>
-    <col min="14" max="14" width="26.21875" customWidth="1"/>
-    <col min="15" max="15" width="37.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" customWidth="1"/>
-    <col min="17" max="17" width="39.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.88671875" customWidth="1"/>
-    <col min="19" max="19" width="37.6640625" customWidth="1"/>
-    <col min="21" max="21" width="36.21875" customWidth="1"/>
-    <col min="22" max="22" width="10.88671875" customWidth="1"/>
-    <col min="23" max="23" width="37.6640625" customWidth="1"/>
-    <col min="24" max="24" width="18.5546875" customWidth="1"/>
-    <col min="25" max="25" width="15.6640625" customWidth="1"/>
-    <col min="26" max="26" width="13.77734375" customWidth="1"/>
-    <col min="28" max="28" width="39.5546875" customWidth="1"/>
-    <col min="29" max="29" width="12.109375" customWidth="1"/>
-    <col min="30" max="30" width="35.77734375" customWidth="1"/>
-    <col min="31" max="31" width="15.21875" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" customWidth="1"/>
-    <col min="33" max="33" width="33.109375" customWidth="1"/>
-    <col min="34" max="34" width="11.77734375" customWidth="1"/>
-    <col min="35" max="35" width="36.6640625" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" customWidth="1"/>
-    <col min="38" max="38" width="11.109375" customWidth="1"/>
-    <col min="39" max="39" width="37.21875" customWidth="1"/>
-    <col min="40" max="40" width="13.77734375" customWidth="1"/>
-    <col min="41" max="41" width="37.21875" customWidth="1"/>
-    <col min="42" max="42" width="10.44140625" customWidth="1"/>
-    <col min="43" max="43" width="35.77734375" customWidth="1"/>
-    <col min="44" max="44" width="18.109375" customWidth="1"/>
-    <col min="45" max="45" width="37.6640625" customWidth="1"/>
-    <col min="46" max="47" width="14.5546875" customWidth="1"/>
-    <col min="48" max="48" width="35.88671875" customWidth="1"/>
-    <col min="49" max="49" width="10.77734375" customWidth="1"/>
-    <col min="50" max="50" width="35.77734375" customWidth="1"/>
-    <col min="51" max="51" width="11" customWidth="1"/>
-    <col min="53" max="53" width="36.6640625" customWidth="1"/>
-    <col min="54" max="54" width="11.109375" customWidth="1"/>
-    <col min="56" max="56" width="37.33203125" customWidth="1"/>
-    <col min="57" max="57" width="15.6640625" customWidth="1"/>
-    <col min="58" max="58" width="14.5546875" customWidth="1"/>
-    <col min="59" max="59" width="40.77734375" customWidth="1"/>
-    <col min="60" max="62" width="11.6640625" customWidth="1"/>
-    <col min="63" max="63" width="39.88671875" customWidth="1"/>
-    <col min="64" max="64" width="8.88671875" customWidth="1"/>
-    <col min="65" max="65" width="13.6640625" customWidth="1"/>
-    <col min="66" max="66" width="35.6640625" customWidth="1"/>
-    <col min="67" max="67" width="12.88671875" customWidth="1"/>
-    <col min="68" max="68" width="13.88671875" customWidth="1"/>
-    <col min="70" max="70" width="11" customWidth="1"/>
-    <col min="71" max="71" width="38.44140625" customWidth="1"/>
-    <col min="72" max="72" width="18.5546875" customWidth="1"/>
-    <col min="73" max="73" width="29.109375" customWidth="1"/>
-    <col min="74" max="74" width="38.33203125" customWidth="1"/>
-    <col min="75" max="75" width="35.21875" customWidth="1"/>
-    <col min="76" max="76" width="24.21875" customWidth="1"/>
-    <col min="77" max="77" width="49.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="16.88671875" customWidth="1"/>
-    <col min="80" max="80" width="16.33203125" customWidth="1"/>
-    <col min="81" max="81" width="24.77734375" customWidth="1"/>
-    <col min="82" max="82" width="40.5546875" customWidth="1"/>
-    <col min="83" max="83" width="17.77734375" customWidth="1"/>
-    <col min="84" max="84" width="39.5546875" customWidth="1"/>
-    <col min="85" max="85" width="20.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="38.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="37.21875" customWidth="1"/>
+    <col min="14" max="14" width="21.44140625" customWidth="1"/>
+    <col min="15" max="15" width="38.44140625" customWidth="1"/>
+    <col min="16" max="16" width="26.21875" customWidth="1"/>
+    <col min="17" max="17" width="37.44140625" customWidth="1"/>
+    <col min="18" max="18" width="22.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
+    <col min="20" max="20" width="39.33203125" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" customWidth="1"/>
+    <col min="22" max="22" width="39.33203125" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="37.6640625" customWidth="1"/>
+    <col min="26" max="26" width="36.21875" customWidth="1"/>
+    <col min="27" max="27" width="10.88671875" customWidth="1"/>
+    <col min="28" max="28" width="37.6640625" customWidth="1"/>
+    <col min="29" max="29" width="18.5546875" customWidth="1"/>
+    <col min="30" max="30" width="15.6640625" customWidth="1"/>
+    <col min="31" max="31" width="13.77734375" customWidth="1"/>
+    <col min="33" max="33" width="39.5546875" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" customWidth="1"/>
+    <col min="35" max="35" width="35.77734375" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" customWidth="1"/>
+    <col min="38" max="38" width="40" customWidth="1"/>
+    <col min="39" max="39" width="11.77734375" customWidth="1"/>
+    <col min="40" max="40" width="36.6640625" customWidth="1"/>
+    <col min="41" max="41" width="11.5546875" customWidth="1"/>
+    <col min="42" max="42" width="12.6640625" customWidth="1"/>
+    <col min="43" max="43" width="11.109375" customWidth="1"/>
+    <col min="44" max="44" width="37.21875" customWidth="1"/>
+    <col min="45" max="45" width="13.77734375" customWidth="1"/>
+    <col min="46" max="46" width="37.21875" customWidth="1"/>
+    <col min="47" max="48" width="10.44140625" customWidth="1"/>
+    <col min="49" max="49" width="35.77734375" customWidth="1"/>
+    <col min="50" max="50" width="18.109375" customWidth="1"/>
+    <col min="51" max="51" width="37.6640625" customWidth="1"/>
+    <col min="52" max="53" width="14.5546875" customWidth="1"/>
+    <col min="54" max="54" width="35.88671875" customWidth="1"/>
+    <col min="55" max="55" width="10.77734375" customWidth="1"/>
+    <col min="56" max="56" width="37.21875" customWidth="1"/>
+    <col min="57" max="57" width="11" customWidth="1"/>
+    <col min="59" max="59" width="38.44140625" customWidth="1"/>
+    <col min="60" max="60" width="11.109375" customWidth="1"/>
+    <col min="62" max="62" width="37.33203125" customWidth="1"/>
+    <col min="63" max="64" width="15.6640625" customWidth="1"/>
+    <col min="65" max="65" width="38.5546875" customWidth="1"/>
+    <col min="66" max="66" width="22.33203125" customWidth="1"/>
+    <col min="67" max="67" width="40.77734375" customWidth="1"/>
+    <col min="68" max="70" width="11.6640625" customWidth="1"/>
+    <col min="71" max="71" width="39.88671875" customWidth="1"/>
+    <col min="72" max="72" width="8.88671875" customWidth="1"/>
+    <col min="73" max="73" width="13.6640625" customWidth="1"/>
+    <col min="74" max="74" width="38.5546875" customWidth="1"/>
+    <col min="75" max="75" width="12.88671875" customWidth="1"/>
+    <col min="76" max="76" width="13.88671875" customWidth="1"/>
+    <col min="78" max="78" width="11" customWidth="1"/>
+    <col min="79" max="79" width="38.44140625" customWidth="1"/>
+    <col min="80" max="80" width="16.5546875" customWidth="1"/>
+    <col min="81" max="81" width="38.6640625" customWidth="1"/>
+    <col min="82" max="82" width="18.5546875" customWidth="1"/>
+    <col min="83" max="83" width="29.109375" customWidth="1"/>
+    <col min="84" max="84" width="38.33203125" customWidth="1"/>
+    <col min="85" max="85" width="35.21875" customWidth="1"/>
+    <col min="86" max="86" width="24.21875" customWidth="1"/>
+    <col min="87" max="87" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="16.88671875" customWidth="1"/>
+    <col min="90" max="90" width="16.33203125" customWidth="1"/>
+    <col min="91" max="91" width="24.77734375" customWidth="1"/>
+    <col min="92" max="92" width="40.5546875" customWidth="1"/>
+    <col min="93" max="93" width="17.77734375" customWidth="1"/>
+    <col min="94" max="94" width="39.5546875" customWidth="1"/>
+    <col min="95" max="95" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:95">
       <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
@@ -1893,235 +2498,265 @@
         <v>54</v>
       </c>
       <c r="J1" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="S1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>26</v>
       </c>
       <c r="AG1" s="15" t="s">
         <v>41</v>
       </c>
       <c r="AH1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AY1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="BB1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="BC1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BK1" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BL1" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="BM1" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="BN1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BO1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BP1" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BQ1" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BR1" s="15" t="s">
         <v>435</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BS1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BT1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BU1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BV1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BW1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BX1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BY1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="BR1" s="15" t="s">
+      <c r="BZ1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="BS1" s="15" t="s">
+      <c r="CA1" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="CB1" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="CC1" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="CD1" s="15" t="s">
         <v>405</v>
       </c>
-      <c r="BU1" s="15" t="s">
+      <c r="CE1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="BV1" s="15" t="s">
+      <c r="CF1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="CG1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="CH1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="CI1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="CJ1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="CA1" s="15" t="s">
+      <c r="CK1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="CB1" s="15" t="s">
+      <c r="CL1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="CC1" s="16" t="s">
+      <c r="CM1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="CD1" s="15" t="s">
+      <c r="CN1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="CE1" s="15" t="s">
+      <c r="CO1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="CF1" s="15" t="s">
+      <c r="CP1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="CG1" s="15" t="s">
+      <c r="CQ1" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:85" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:95" ht="14.4" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
@@ -2145,11 +2780,11 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -2160,22 +2795,22 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
+      <c r="AM2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
@@ -2209,30 +2844,40 @@
       <c r="BS2" s="2"/>
       <c r="BT2" s="2"/>
       <c r="BU2" s="2"/>
-      <c r="BV2" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="BV2" s="2"/>
       <c r="BW2" s="2"/>
       <c r="BX2" s="2"/>
       <c r="BY2" s="2"/>
       <c r="BZ2" s="2"/>
-      <c r="CA2" s="2" t="s">
+      <c r="CA2" s="2"/>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CL2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="CC2" s="2" t="s">
+      <c r="CM2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CN2" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
+      <c r="CO2" s="2"/>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
     </row>
-    <row r="3" spans="1:85" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:95" ht="15.6" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
@@ -2271,46 +2916,46 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
-      <c r="AC3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
+      <c r="AH3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
-      <c r="AP3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ3" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
       <c r="AR3" s="2"/>
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
+      <c r="AV3" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="AW3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AX3" s="2"/>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
+      <c r="BC3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -2329,27 +2974,37 @@
       <c r="BT3" s="2"/>
       <c r="BU3" s="2"/>
       <c r="BV3" s="2"/>
-      <c r="BW3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
       <c r="BY3" s="2"/>
       <c r="BZ3" s="2"/>
       <c r="CA3" s="2"/>
       <c r="CB3" s="2"/>
-      <c r="CC3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="CD3" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
       <c r="CE3" s="2"/>
       <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
+      <c r="CG3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2"/>
+      <c r="CQ3" s="2"/>
     </row>
-    <row r="4" spans="1:85" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:95" ht="16.2" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>92</v>
       </c>
@@ -2391,17 +3046,17 @@
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
+      <c r="AK4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
@@ -2415,18 +3070,18 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
       <c r="AY4" s="2"/>
-      <c r="AZ4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
       <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
+      <c r="BF4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
@@ -2440,35 +3095,45 @@
       <c r="BR4" s="2"/>
       <c r="BS4" s="2"/>
       <c r="BT4" s="2"/>
-      <c r="BU4" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="BU4" s="2"/>
       <c r="BV4" s="2"/>
-      <c r="BW4" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
       <c r="CB4" s="2"/>
-      <c r="CC4" s="2" t="s">
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="CD4" s="6" t="s">
+      <c r="CN4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="CE4" s="2" t="s">
+      <c r="CO4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="CF4" s="4" t="s">
+      <c r="CP4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="CG4" s="4"/>
+      <c r="CQ4" s="4"/>
     </row>
-    <row r="5" spans="1:85" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:95" ht="16.2" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>101</v>
       </c>
@@ -2492,15 +3157,15 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="7"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -2528,26 +3193,26 @@
       <c r="AQ5" s="2"/>
       <c r="AR5" s="2"/>
       <c r="AS5" s="2"/>
-      <c r="AT5" s="2">
-        <v>2</v>
-      </c>
+      <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="2"/>
-      <c r="AZ5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AZ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
       <c r="BC5" s="2"/>
       <c r="BD5" s="2"/>
       <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
+      <c r="BF5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BH5" s="2"/>
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
@@ -2562,30 +3227,40 @@
       <c r="BS5" s="2"/>
       <c r="BT5" s="2"/>
       <c r="BU5" s="2"/>
-      <c r="BV5" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="BV5" s="2"/>
       <c r="BW5" s="2"/>
-      <c r="BX5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="BY5" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
       <c r="BZ5" s="2"/>
       <c r="CA5" s="2"/>
       <c r="CB5" s="2"/>
-      <c r="CC5" s="2" t="s">
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CI5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="CD5" s="6" t="s">
+      <c r="CN5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
+      <c r="CQ5" s="2"/>
     </row>
-    <row r="6" spans="1:85" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:95" ht="16.8" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>202</v>
       </c>
@@ -2609,11 +3284,11 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -2624,11 +3299,11 @@
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="8"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
@@ -2653,50 +3328,60 @@
       <c r="BC6" s="2"/>
       <c r="BD6" s="2"/>
       <c r="BE6" s="2"/>
-      <c r="BF6" s="2" t="s">
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="BG6" s="6" t="s">
+      <c r="BO6" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="BH6" s="6"/>
-      <c r="BI6" s="6"/>
-      <c r="BJ6" s="6"/>
-      <c r="BK6" s="6"/>
-      <c r="BL6" s="7"/>
-      <c r="BM6" s="7"/>
-      <c r="BN6" s="7"/>
-      <c r="BO6" s="7"/>
-      <c r="BP6" s="7"/>
-      <c r="BQ6" s="7" t="b">
+      <c r="BP6" s="6"/>
+      <c r="BQ6" s="6"/>
+      <c r="BR6" s="6"/>
+      <c r="BS6" s="6"/>
+      <c r="BT6" s="7"/>
+      <c r="BU6" s="7"/>
+      <c r="BV6" s="7"/>
+      <c r="BW6" s="7"/>
+      <c r="BX6" s="7"/>
+      <c r="BY6" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="BR6" s="7"/>
-      <c r="BS6" s="7"/>
-      <c r="BT6" s="7"/>
-      <c r="BU6" s="2"/>
-      <c r="BV6" s="2" t="s">
+      <c r="BZ6" s="7"/>
+      <c r="CA6" s="7"/>
+      <c r="CB6" s="7"/>
+      <c r="CC6" s="7"/>
+      <c r="CD6" s="7"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2" t="s">
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2" t="s">
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="CD6" s="6" t="s">
+      <c r="CN6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
+      <c r="CQ6" s="2"/>
     </row>
-    <row r="7" spans="1:85" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:95" ht="18" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>207</v>
       </c>
@@ -2742,14 +3427,14 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
-      <c r="AJ7" s="2">
-        <v>4</v>
-      </c>
+      <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
+      <c r="AO7" s="2">
+        <v>4</v>
+      </c>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
@@ -2759,27 +3444,27 @@
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
-      <c r="AY7" s="2">
-        <v>9</v>
-      </c>
+      <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
-      <c r="BC7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE7" s="7"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2">
+        <v>9</v>
+      </c>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
       <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
+      <c r="BI7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
       <c r="BN7" s="2"/>
       <c r="BO7" s="2"/>
       <c r="BP7" s="2"/>
@@ -2789,25 +3474,35 @@
       <c r="BT7" s="2"/>
       <c r="BU7" s="2"/>
       <c r="BV7" s="2"/>
-      <c r="BW7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="BW7" s="2"/>
       <c r="BX7" s="2"/>
       <c r="BY7" s="2"/>
       <c r="BZ7" s="2"/>
       <c r="CA7" s="2"/>
       <c r="CB7" s="2"/>
-      <c r="CC7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="CD7" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
       <c r="CE7" s="2"/>
       <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
+      <c r="CG7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CL7" s="2"/>
+      <c r="CM7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="CN7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO7" s="2"/>
+      <c r="CP7" s="2"/>
+      <c r="CQ7" s="2"/>
     </row>
-    <row r="8" spans="1:85" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:95" ht="16.8" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>208</v>
       </c>
@@ -2848,44 +3543,44 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2">
-        <v>3</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2">
-        <v>6</v>
-      </c>
+      <c r="AJ8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
+      <c r="AP8" s="2">
+        <v>6</v>
+      </c>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
-      <c r="AT8" s="2">
-        <v>3</v>
-      </c>
+      <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
+      <c r="AZ8" s="2">
+        <v>3</v>
+      </c>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="2">
-        <v>6</v>
-      </c>
+      <c r="BB8" s="2"/>
       <c r="BC8" s="2"/>
       <c r="BD8" s="2"/>
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
+      <c r="BH8" s="2">
+        <v>6</v>
+      </c>
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
@@ -2899,26 +3594,36 @@
       <c r="BS8" s="2"/>
       <c r="BT8" s="2"/>
       <c r="BU8" s="2"/>
-      <c r="BV8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="BV8" s="2"/>
       <c r="BW8" s="2"/>
       <c r="BX8" s="2"/>
       <c r="BY8" s="2"/>
       <c r="BZ8" s="2"/>
       <c r="CA8" s="2"/>
       <c r="CB8" s="2"/>
-      <c r="CC8" s="2" t="s">
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CL8" s="2"/>
+      <c r="CM8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CD8" s="6" t="s">
+      <c r="CN8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
+      <c r="CO8" s="2"/>
+      <c r="CP8" s="2"/>
+      <c r="CQ8" s="2"/>
     </row>
-    <row r="9" spans="1:85" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:95" ht="15.6" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2979,15 +3684,15 @@
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
-      <c r="AY9" s="2">
-        <v>9</v>
-      </c>
+      <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
       <c r="BC9" s="2"/>
       <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
+      <c r="BE9" s="2">
+        <v>9</v>
+      </c>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
@@ -3004,30 +3709,40 @@
       <c r="BS9" s="2"/>
       <c r="BT9" s="2"/>
       <c r="BU9" s="2"/>
-      <c r="BV9" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="BV9" s="2"/>
       <c r="BW9" s="2"/>
-      <c r="BX9" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BY9" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="BX9" s="2"/>
+      <c r="BY9" s="2"/>
       <c r="BZ9" s="2"/>
       <c r="CA9" s="2"/>
       <c r="CB9" s="2"/>
-      <c r="CC9" s="2" t="s">
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CI9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CL9" s="2"/>
+      <c r="CM9" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CD9" s="6" t="s">
+      <c r="CN9" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
+      <c r="CO9" s="2"/>
+      <c r="CP9" s="2"/>
+      <c r="CQ9" s="2"/>
     </row>
-    <row r="10" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:95" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>216</v>
       </c>
@@ -3051,11 +3766,11 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
@@ -3066,11 +3781,11 @@
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
+      <c r="AG10" s="7"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
@@ -3112,27 +3827,37 @@
       <c r="BT10" s="2"/>
       <c r="BU10" s="2"/>
       <c r="BV10" s="2"/>
-      <c r="BW10" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="BX10" s="2" t="s">
-        <v>215</v>
-      </c>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
       <c r="BY10" s="2"/>
       <c r="BZ10" s="2"/>
       <c r="CA10" s="2"/>
       <c r="CB10" s="2"/>
-      <c r="CC10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CD10" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
+      <c r="CG10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CH10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CL10" s="2"/>
+      <c r="CM10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="CN10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="CO10" s="2"/>
+      <c r="CP10" s="2"/>
+      <c r="CQ10" s="2"/>
     </row>
-    <row r="11" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:95" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>220</v>
       </c>
@@ -3162,17 +3887,17 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
-      <c r="T11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -3205,47 +3930,57 @@
       <c r="BD11" s="2"/>
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
       <c r="BO11" s="3"/>
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3"/>
       <c r="BR11" s="3"/>
       <c r="BS11" s="3"/>
       <c r="BT11" s="3"/>
-      <c r="BU11" s="2"/>
-      <c r="BV11" s="2" t="s">
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="BW11" s="2"/>
-      <c r="BX11" s="2" t="s">
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BY11" s="2"/>
-      <c r="BZ11" s="2"/>
-      <c r="CA11" s="2"/>
-      <c r="CB11" s="2"/>
-      <c r="CC11" s="2" t="s">
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CL11" s="2"/>
+      <c r="CM11" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="CD11" s="6" t="s">
+      <c r="CN11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="CE11" s="2" t="s">
+      <c r="CO11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="CF11" s="7" t="s">
+      <c r="CP11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="CG11" s="7"/>
+      <c r="CQ11" s="7"/>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:95">
       <c r="A12" s="2" t="s">
         <v>222</v>
       </c>
@@ -3313,20 +4048,20 @@
       <c r="BC12" s="2"/>
       <c r="BD12" s="2"/>
       <c r="BE12" s="2"/>
-      <c r="BF12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="BG12" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
       <c r="BH12" s="2"/>
       <c r="BI12" s="2"/>
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="2"/>
+      <c r="BN12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="BP12" s="2"/>
       <c r="BQ12" s="2"/>
       <c r="BR12" s="2"/>
@@ -3335,26 +4070,36 @@
       <c r="BU12" s="2"/>
       <c r="BV12" s="2"/>
       <c r="BW12" s="2"/>
-      <c r="BX12" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="BX12" s="2"/>
       <c r="BY12" s="2"/>
       <c r="BZ12" s="2"/>
       <c r="CA12" s="2"/>
       <c r="CB12" s="2"/>
-      <c r="CC12" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CD12" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
       <c r="CE12" s="2"/>
       <c r="CF12" s="2"/>
-      <c r="CG12" s="2" t="s">
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:95">
       <c r="A13" s="2" t="s">
         <v>226</v>
       </c>
@@ -3393,17 +4138,17 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="AF13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
@@ -3429,43 +4174,53 @@
       <c r="BD13" s="2"/>
       <c r="BE13" s="2"/>
       <c r="BF13" s="2"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="10"/>
-      <c r="BK13" s="10"/>
-      <c r="BL13" s="10"/>
-      <c r="BM13" s="10"/>
-      <c r="BN13" s="10"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
       <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10"/>
       <c r="BR13" s="10"/>
       <c r="BS13" s="10"/>
       <c r="BT13" s="10"/>
-      <c r="BU13" s="2"/>
-      <c r="BV13" s="2"/>
-      <c r="BW13" s="2"/>
-      <c r="BX13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="BY13" s="2"/>
-      <c r="BZ13" s="2"/>
-      <c r="CA13" s="2"/>
-      <c r="CB13" s="2"/>
-      <c r="CC13" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="CD13" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="BU13" s="10"/>
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10"/>
+      <c r="BX13" s="10"/>
+      <c r="BY13" s="10"/>
+      <c r="BZ13" s="10"/>
+      <c r="CA13" s="10"/>
+      <c r="CB13" s="10"/>
+      <c r="CC13" s="10"/>
+      <c r="CD13" s="10"/>
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
-      <c r="CG13" s="2" t="s">
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="2"/>
+      <c r="CL13" s="2"/>
+      <c r="CM13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN13" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO13" s="2"/>
+      <c r="CP13" s="2"/>
+      <c r="CQ13" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:95">
       <c r="A14" s="2" t="s">
         <v>236</v>
       </c>
@@ -3489,17 +4244,17 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
@@ -3511,14 +4266,14 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
-      <c r="AJ14" s="2">
-        <v>4</v>
-      </c>
+      <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
+      <c r="AO14" s="2">
+        <v>4</v>
+      </c>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
@@ -3553,26 +4308,36 @@
       <c r="BU14" s="2"/>
       <c r="BV14" s="2"/>
       <c r="BW14" s="2"/>
-      <c r="BX14" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="BX14" s="2"/>
       <c r="BY14" s="2"/>
       <c r="BZ14" s="2"/>
       <c r="CA14" s="2"/>
       <c r="CB14" s="2"/>
-      <c r="CC14" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="CD14" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
       <c r="CE14" s="2"/>
       <c r="CF14" s="2"/>
-      <c r="CG14" s="2" t="s">
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CI14" s="2"/>
+      <c r="CJ14" s="2"/>
+      <c r="CK14" s="2"/>
+      <c r="CL14" s="2"/>
+      <c r="CM14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CN14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="CO14" s="2"/>
+      <c r="CP14" s="2"/>
+      <c r="CQ14" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:95">
       <c r="A15" s="2" t="s">
         <v>239</v>
       </c>
@@ -3648,44 +4413,54 @@
       <c r="BI15" s="2"/>
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
-      <c r="BL15" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
       <c r="BN15" s="2"/>
       <c r="BO15" s="2"/>
-      <c r="BP15" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="BP15" s="2"/>
       <c r="BQ15" s="2"/>
       <c r="BR15" s="2"/>
       <c r="BS15" s="2"/>
-      <c r="BT15" s="2"/>
+      <c r="BT15" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="BU15" s="2"/>
       <c r="BV15" s="2"/>
       <c r="BW15" s="2"/>
       <c r="BX15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BY15" s="3" t="s">
-        <v>142</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="BY15" s="2"/>
       <c r="BZ15" s="2"/>
       <c r="CA15" s="2"/>
       <c r="CB15" s="2"/>
-      <c r="CC15" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="CD15" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="CC15" s="2"/>
+      <c r="CD15" s="2"/>
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
-      <c r="CG15" s="2" t="s">
+      <c r="CG15" s="2"/>
+      <c r="CH15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="CI15" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CJ15" s="2"/>
+      <c r="CK15" s="2"/>
+      <c r="CL15" s="2"/>
+      <c r="CM15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="CN15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="CO15" s="2"/>
+      <c r="CP15" s="2"/>
+      <c r="CQ15" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:95">
       <c r="A16" s="2" t="s">
         <v>242</v>
       </c>
@@ -3747,18 +4522,18 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
-      <c r="AZ16" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BA16" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
       <c r="BC16" s="2"/>
       <c r="BD16" s="2"/>
       <c r="BE16" s="2"/>
-      <c r="BF16" s="2"/>
-      <c r="BG16" s="2"/>
+      <c r="BF16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG16" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="BH16" s="2"/>
       <c r="BI16" s="2"/>
       <c r="BJ16" s="2"/>
@@ -3775,26 +4550,36 @@
       <c r="BU16" s="2"/>
       <c r="BV16" s="2"/>
       <c r="BW16" s="2"/>
-      <c r="BX16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY16" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="BX16" s="2"/>
+      <c r="BY16" s="2"/>
       <c r="BZ16" s="2"/>
       <c r="CA16" s="2"/>
       <c r="CB16" s="2"/>
-      <c r="CC16" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="CD16" s="9" t="s">
-        <v>146</v>
-      </c>
+      <c r="CC16" s="2"/>
+      <c r="CD16" s="2"/>
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
       <c r="CG16" s="2"/>
+      <c r="CH16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ16" s="2"/>
+      <c r="CK16" s="2"/>
+      <c r="CL16" s="2"/>
+      <c r="CM16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="CO16" s="2"/>
+      <c r="CP16" s="2"/>
+      <c r="CQ16" s="2"/>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:95">
       <c r="A17" s="2" t="s">
         <v>244</v>
       </c>
@@ -3830,14 +4615,14 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
+      <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
       <c r="AF17" s="2"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
@@ -3883,23 +4668,33 @@
       <c r="BV17" s="2"/>
       <c r="BW17" s="2"/>
       <c r="BX17" s="2"/>
-      <c r="BY17" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="BY17" s="2"/>
       <c r="BZ17" s="2"/>
       <c r="CA17" s="2"/>
       <c r="CB17" s="2"/>
-      <c r="CC17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="CD17" s="9" t="s">
-        <v>149</v>
-      </c>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
       <c r="CE17" s="2"/>
       <c r="CF17" s="2"/>
       <c r="CG17" s="2"/>
+      <c r="CH17" s="2"/>
+      <c r="CI17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ17" s="2"/>
+      <c r="CK17" s="2"/>
+      <c r="CL17" s="2"/>
+      <c r="CM17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="CO17" s="2"/>
+      <c r="CP17" s="2"/>
+      <c r="CQ17" s="2"/>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:95">
       <c r="A18" s="2" t="s">
         <v>247</v>
       </c>
@@ -3968,49 +4763,59 @@
       <c r="BD18" s="2"/>
       <c r="BE18" s="2"/>
       <c r="BF18" s="2"/>
-      <c r="BG18" s="9"/>
-      <c r="BH18" s="9" t="b">
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="9"/>
+      <c r="BP18" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="BI18" s="9"/>
-      <c r="BJ18" s="9"/>
-      <c r="BK18" s="9"/>
-      <c r="BL18" s="9"/>
-      <c r="BM18" s="9"/>
-      <c r="BN18" s="9"/>
-      <c r="BO18" s="9"/>
-      <c r="BP18" s="9"/>
       <c r="BQ18" s="9"/>
       <c r="BR18" s="9"/>
       <c r="BS18" s="9"/>
       <c r="BT18" s="9"/>
-      <c r="BU18" s="2"/>
-      <c r="BV18" s="2"/>
-      <c r="BW18" s="2"/>
-      <c r="BX18" s="2" t="s">
+      <c r="BU18" s="9"/>
+      <c r="BV18" s="9"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="9"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BY18" s="2" t="s">
+      <c r="CI18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="BZ18" s="2"/>
-      <c r="CA18" s="2"/>
-      <c r="CB18" s="2"/>
-      <c r="CC18" s="2" t="s">
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="CD18" s="9" t="s">
+      <c r="CN18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="CE18" s="2" t="s">
+      <c r="CO18" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="CF18" s="9" t="s">
+      <c r="CP18" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="CG18" s="2"/>
+      <c r="CQ18" s="2"/>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:95">
       <c r="A19" s="2" t="s">
         <v>251</v>
       </c>
@@ -4029,47 +4834,45 @@
       <c r="F19" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="S19" s="7"/>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="Z19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
-      <c r="AC19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
       <c r="AG19" s="2"/>
-      <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
+      <c r="AH19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI19" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="2">
-        <v>3</v>
-      </c>
+      <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
       <c r="AO19" s="2"/>
-      <c r="AP19" s="2"/>
+      <c r="AP19" s="2">
+        <v>3</v>
+      </c>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
       <c r="AS19" s="2"/>
@@ -4103,24 +4906,34 @@
       <c r="BU19" s="2"/>
       <c r="BV19" s="2"/>
       <c r="BW19" s="2"/>
-      <c r="BX19" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="BX19" s="2"/>
       <c r="BY19" s="2"/>
       <c r="BZ19" s="2"/>
       <c r="CA19" s="2"/>
       <c r="CB19" s="2"/>
-      <c r="CC19" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="CD19" s="9" t="s">
-        <v>158</v>
-      </c>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
       <c r="CE19" s="2"/>
       <c r="CF19" s="2"/>
       <c r="CG19" s="2"/>
+      <c r="CH19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CL19" s="2"/>
+      <c r="CM19" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="CN19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="CO19" s="2"/>
+      <c r="CP19" s="2"/>
+      <c r="CQ19" s="2"/>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:95">
       <c r="A20" s="2" t="s">
         <v>252</v>
       </c>
@@ -4182,18 +4995,18 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
-      <c r="AZ20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
       <c r="BC20" s="2"/>
       <c r="BD20" s="2"/>
       <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
+      <c r="BF20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG20" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
@@ -4207,35 +5020,45 @@
       <c r="BR20" s="2"/>
       <c r="BS20" s="2"/>
       <c r="BT20" s="2"/>
-      <c r="BU20" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BV20" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
       <c r="BW20" s="2"/>
-      <c r="BX20" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="BX20" s="2"/>
       <c r="BY20" s="2"/>
       <c r="BZ20" s="2"/>
       <c r="CA20" s="2"/>
       <c r="CB20" s="2"/>
-      <c r="CC20" s="2" t="s">
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="CF20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CL20" s="2"/>
+      <c r="CM20" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="CD20" s="9" t="s">
+      <c r="CN20" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="CE20" s="2" t="s">
+      <c r="CO20" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="CF20" s="9" t="s">
+      <c r="CP20" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="CG20" s="2"/>
+      <c r="CQ20" s="2"/>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:95">
       <c r="A21" s="2" t="s">
         <v>255</v>
       </c>
@@ -4257,14 +5080,14 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -4326,25 +5149,35 @@
       <c r="BV21" s="2"/>
       <c r="BW21" s="2"/>
       <c r="BX21" s="2"/>
-      <c r="BY21" s="2" t="s">
-        <v>257</v>
-      </c>
+      <c r="BY21" s="2"/>
       <c r="BZ21" s="2"/>
       <c r="CA21" s="2"/>
       <c r="CB21" s="2"/>
-      <c r="CC21" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="CD21" s="9" t="s">
-        <v>162</v>
-      </c>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
       <c r="CE21" s="2"/>
       <c r="CF21" s="2"/>
-      <c r="CG21" s="2" t="s">
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CL21" s="2"/>
+      <c r="CM21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="CN21" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="CO21" s="2"/>
+      <c r="CP21" s="2"/>
+      <c r="CQ21" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:95">
       <c r="A22" s="2" t="s">
         <v>261</v>
       </c>
@@ -4361,8 +5194,6 @@
       <c r="F22" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4408,51 +5239,61 @@
       <c r="BD22" s="2"/>
       <c r="BE22" s="2"/>
       <c r="BF22" s="2"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="2" t="b">
-        <v>1</v>
-      </c>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
       <c r="BN22" s="2"/>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BQ22" s="2"/>
-      <c r="BR22" s="2"/>
-      <c r="BS22" s="2"/>
-      <c r="BT22" s="2"/>
+      <c r="BO22" s="3"/>
+      <c r="BP22" s="3"/>
+      <c r="BQ22" s="3"/>
+      <c r="BR22" s="3"/>
+      <c r="BS22" s="3"/>
+      <c r="BT22" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="BU22" s="2"/>
       <c r="BV22" s="2"/>
       <c r="BW22" s="2"/>
       <c r="BX22" s="2" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="BY22" s="2"/>
       <c r="BZ22" s="2"/>
       <c r="CA22" s="2"/>
       <c r="CB22" s="2"/>
-      <c r="CC22" s="2" t="s">
+      <c r="CC22" s="2"/>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+      <c r="CF22" s="2"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI22" s="2"/>
+      <c r="CJ22" s="2"/>
+      <c r="CK22" s="2"/>
+      <c r="CL22" s="2"/>
+      <c r="CM22" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="CD22" s="9" t="s">
+      <c r="CN22" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="CE22" s="2" t="s">
+      <c r="CO22" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="CF22" s="9" t="s">
+      <c r="CP22" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="CG22" s="2" t="s">
+      <c r="CQ22" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:95">
       <c r="A23" s="2" t="s">
         <v>265</v>
       </c>
@@ -4484,17 +5325,17 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="Y23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -4504,14 +5345,14 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
-      <c r="AJ23" s="2">
-        <v>2</v>
-      </c>
+      <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
+      <c r="AO23" s="2">
+        <v>2</v>
+      </c>
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
@@ -4524,15 +5365,15 @@
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="2">
-        <v>4</v>
-      </c>
+      <c r="BB23" s="2"/>
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
       <c r="BE23" s="2"/>
       <c r="BF23" s="2"/>
       <c r="BG23" s="2"/>
-      <c r="BH23" s="2"/>
+      <c r="BH23" s="2">
+        <v>4</v>
+      </c>
       <c r="BI23" s="2"/>
       <c r="BJ23" s="2"/>
       <c r="BK23" s="2"/>
@@ -4548,26 +5389,36 @@
       <c r="BU23" s="2"/>
       <c r="BV23" s="2"/>
       <c r="BW23" s="2"/>
-      <c r="BX23" s="2" t="s">
-        <v>138</v>
-      </c>
+      <c r="BX23" s="2"/>
       <c r="BY23" s="2"/>
       <c r="BZ23" s="2"/>
       <c r="CA23" s="2"/>
       <c r="CB23" s="2"/>
-      <c r="CC23" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="CD23" s="9" t="s">
-        <v>169</v>
-      </c>
+      <c r="CC23" s="2"/>
+      <c r="CD23" s="2"/>
       <c r="CE23" s="2"/>
       <c r="CF23" s="2"/>
-      <c r="CG23" s="2" t="s">
+      <c r="CG23" s="2"/>
+      <c r="CH23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI23" s="2"/>
+      <c r="CJ23" s="2"/>
+      <c r="CK23" s="2"/>
+      <c r="CL23" s="2"/>
+      <c r="CM23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="CN23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="CO23" s="20"/>
+      <c r="CP23" s="20"/>
+      <c r="CQ23" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:95">
       <c r="A24" s="2" t="s">
         <v>268</v>
       </c>
@@ -4629,18 +5480,18 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
       <c r="AY24" s="2"/>
-      <c r="AZ24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA24" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
       <c r="BC24" s="2"/>
       <c r="BD24" s="2"/>
       <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
+      <c r="BF24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG24" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="BH24" s="2"/>
       <c r="BI24" s="2"/>
       <c r="BJ24" s="2"/>
@@ -4654,9 +5505,7 @@
       <c r="BR24" s="2"/>
       <c r="BS24" s="2"/>
       <c r="BT24" s="2"/>
-      <c r="BU24" s="2" t="s">
-        <v>171</v>
-      </c>
+      <c r="BU24" s="2"/>
       <c r="BV24" s="2"/>
       <c r="BW24" s="2"/>
       <c r="BX24" s="2"/>
@@ -4664,17 +5513,29 @@
       <c r="BZ24" s="2"/>
       <c r="CA24" s="2"/>
       <c r="CB24" s="2"/>
-      <c r="CC24" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="CD24" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="CE24" s="2"/>
+      <c r="CC24" s="2"/>
+      <c r="CD24" s="2"/>
+      <c r="CE24" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="CF24" s="2"/>
       <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
+      <c r="CJ24" s="2"/>
+      <c r="CK24" s="2"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CN24" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="CO24" s="20"/>
+      <c r="CP24" s="20"/>
+      <c r="CQ24" s="2"/>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:95">
       <c r="A25" s="2" t="s">
         <v>269</v>
       </c>
@@ -4700,15 +5561,15 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2" t="s">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="T25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -4726,17 +5587,17 @@
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM25" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
+      <c r="AQ25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
@@ -4765,9 +5626,7 @@
       <c r="BR25" s="2"/>
       <c r="BS25" s="2"/>
       <c r="BT25" s="2"/>
-      <c r="BU25" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="BU25" s="2"/>
       <c r="BV25" s="2"/>
       <c r="BW25" s="2"/>
       <c r="BX25" s="2"/>
@@ -4775,17 +5634,29 @@
       <c r="BZ25" s="2"/>
       <c r="CA25" s="2"/>
       <c r="CB25" s="2"/>
-      <c r="CC25" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="CD25" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE25" s="2"/>
+      <c r="CC25" s="2"/>
+      <c r="CD25" s="2"/>
+      <c r="CE25" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="CF25" s="2"/>
       <c r="CG25" s="2"/>
+      <c r="CH25" s="2"/>
+      <c r="CI25" s="2"/>
+      <c r="CJ25" s="2"/>
+      <c r="CK25" s="2"/>
+      <c r="CL25" s="2"/>
+      <c r="CM25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="CN25" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="CO25" s="20"/>
+      <c r="CP25" s="20"/>
+      <c r="CQ25" s="2"/>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:95">
       <c r="A26" s="2" t="s">
         <v>271</v>
       </c>
@@ -4832,26 +5703,26 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="2">
-        <v>6</v>
-      </c>
+      <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
       <c r="AM26" s="2"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
+      <c r="AP26" s="2">
+        <v>6</v>
+      </c>
       <c r="AQ26" s="2"/>
       <c r="AR26" s="2"/>
       <c r="AS26" s="2"/>
-      <c r="AT26" s="2">
-        <v>4</v>
-      </c>
+      <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
+      <c r="AZ26" s="2">
+        <v>4</v>
+      </c>
       <c r="BA26" s="2"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
@@ -4880,19 +5751,29 @@
       <c r="BZ26" s="2"/>
       <c r="CA26" s="2"/>
       <c r="CB26" s="2"/>
-      <c r="CC26" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CD26" s="9" t="s">
-        <v>183</v>
-      </c>
+      <c r="CC26" s="2"/>
+      <c r="CD26" s="2"/>
       <c r="CE26" s="2"/>
       <c r="CF26" s="2"/>
-      <c r="CG26" s="2" t="s">
+      <c r="CG26" s="2"/>
+      <c r="CH26" s="2"/>
+      <c r="CI26" s="2"/>
+      <c r="CJ26" s="2"/>
+      <c r="CK26" s="2"/>
+      <c r="CL26" s="2"/>
+      <c r="CM26" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN26" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CO26" s="20"/>
+      <c r="CP26" s="20"/>
+      <c r="CQ26" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:95">
       <c r="A27" s="2" t="s">
         <v>272</v>
       </c>
@@ -4975,9 +5856,7 @@
       <c r="BR27" s="2"/>
       <c r="BS27" s="2"/>
       <c r="BT27" s="2"/>
-      <c r="BU27" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="BU27" s="2"/>
       <c r="BV27" s="2"/>
       <c r="BW27" s="2"/>
       <c r="BX27" s="2"/>
@@ -4985,17 +5864,29 @@
       <c r="BZ27" s="2"/>
       <c r="CA27" s="2"/>
       <c r="CB27" s="2"/>
-      <c r="CC27" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="CD27" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="CE27" s="2"/>
+      <c r="CC27" s="2"/>
+      <c r="CD27" s="2"/>
+      <c r="CE27" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="CF27" s="2"/>
       <c r="CG27" s="2"/>
+      <c r="CH27" s="2"/>
+      <c r="CI27" s="2"/>
+      <c r="CJ27" s="2"/>
+      <c r="CK27" s="2"/>
+      <c r="CL27" s="2"/>
+      <c r="CM27" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CN27" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="CO27" s="20"/>
+      <c r="CP27" s="20"/>
+      <c r="CQ27" s="2"/>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:95">
       <c r="A28" s="2" t="s">
         <v>275</v>
       </c>
@@ -5074,35 +5965,45 @@
       <c r="BN28" s="2"/>
       <c r="BO28" s="2"/>
       <c r="BP28" s="2"/>
-      <c r="BQ28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BR28" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="BS28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BT28" s="1"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
       <c r="BU28" s="2"/>
       <c r="BV28" s="2"/>
       <c r="BW28" s="2"/>
       <c r="BX28" s="2"/>
-      <c r="BY28" s="2"/>
-      <c r="BZ28" s="2"/>
-      <c r="CA28" s="2"/>
-      <c r="CB28" s="2"/>
-      <c r="CC28" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="CD28" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="BY28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BZ28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CA28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CB28" s="1"/>
+      <c r="CC28" s="1"/>
+      <c r="CD28" s="1"/>
       <c r="CE28" s="2"/>
       <c r="CF28" s="2"/>
       <c r="CG28" s="2"/>
+      <c r="CH28" s="2"/>
+      <c r="CI28" s="2"/>
+      <c r="CJ28" s="2"/>
+      <c r="CK28" s="2"/>
+      <c r="CL28" s="2"/>
+      <c r="CM28" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CN28" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO28" s="20"/>
+      <c r="CP28" s="20"/>
+      <c r="CQ28" s="2"/>
     </row>
-    <row r="29" spans="1:85" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:95" ht="15.6" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>278</v>
       </c>
@@ -5124,8 +6025,8 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -5134,19 +6035,19 @@
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="1" t="s">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="5"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
@@ -5189,9 +6090,7 @@
       <c r="BR29" s="2"/>
       <c r="BS29" s="2"/>
       <c r="BT29" s="2"/>
-      <c r="BU29" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="BU29" s="2"/>
       <c r="BV29" s="2"/>
       <c r="BW29" s="2"/>
       <c r="BX29" s="2"/>
@@ -5199,17 +6098,29 @@
       <c r="BZ29" s="2"/>
       <c r="CA29" s="2"/>
       <c r="CB29" s="2"/>
-      <c r="CC29" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="CD29" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="CE29" s="2"/>
+      <c r="CC29" s="2"/>
+      <c r="CD29" s="2"/>
+      <c r="CE29" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="CF29" s="2"/>
       <c r="CG29" s="2"/>
+      <c r="CH29" s="2"/>
+      <c r="CI29" s="2"/>
+      <c r="CJ29" s="2"/>
+      <c r="CK29" s="2"/>
+      <c r="CL29" s="2"/>
+      <c r="CM29" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="CN29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO29" s="20"/>
+      <c r="CP29" s="20"/>
+      <c r="CQ29" s="2"/>
     </row>
-    <row r="30" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:95">
       <c r="A30" s="2" t="s">
         <v>271</v>
       </c>
@@ -5235,27 +6146,27 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="2" t="s">
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W30" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
+      <c r="AA30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -5300,29 +6211,39 @@
       <c r="BR30" s="2"/>
       <c r="BS30" s="2"/>
       <c r="BT30" s="2"/>
-      <c r="BU30" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="BV30" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
       <c r="BW30" s="2"/>
       <c r="BX30" s="2"/>
       <c r="BY30" s="2"/>
       <c r="BZ30" s="2"/>
       <c r="CA30" s="2"/>
       <c r="CB30" s="2"/>
-      <c r="CC30" s="2" t="s">
+      <c r="CC30" s="2"/>
+      <c r="CD30" s="2"/>
+      <c r="CE30" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="CF30" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="CG30" s="2"/>
+      <c r="CH30" s="2"/>
+      <c r="CI30" s="2"/>
+      <c r="CJ30" s="2"/>
+      <c r="CK30" s="2"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="CD30" s="9" t="s">
+      <c r="CN30" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="CE30" s="2"/>
-      <c r="CF30" s="2"/>
-      <c r="CG30" s="2"/>
+      <c r="CO30" s="20"/>
+      <c r="CP30" s="20"/>
+      <c r="CQ30" s="2"/>
     </row>
-    <row r="31" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:95">
       <c r="A31" s="12" t="s">
         <v>285</v>
       </c>
@@ -5396,44 +6317,54 @@
       <c r="BI31" s="12"/>
       <c r="BJ31" s="12"/>
       <c r="BK31" s="12"/>
-      <c r="BL31" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM31" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN31" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="BO31" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="BP31" s="12" t="s">
-        <v>198</v>
-      </c>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
       <c r="BQ31" s="12"/>
       <c r="BR31" s="12"/>
       <c r="BS31" s="12"/>
-      <c r="BT31" s="12"/>
-      <c r="BU31" s="12"/>
-      <c r="BV31" s="12"/>
-      <c r="BW31" s="12"/>
-      <c r="BX31" s="12"/>
+      <c r="BT31" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BV31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX31" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="BY31" s="12"/>
       <c r="BZ31" s="12"/>
       <c r="CA31" s="12"/>
       <c r="CB31" s="12"/>
-      <c r="CC31" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="CD31" s="12" t="s">
-        <v>200</v>
-      </c>
+      <c r="CC31" s="12"/>
+      <c r="CD31" s="12"/>
       <c r="CE31" s="12"/>
       <c r="CF31" s="12"/>
       <c r="CG31" s="12"/>
+      <c r="CH31" s="12"/>
+      <c r="CI31" s="12"/>
+      <c r="CJ31" s="12"/>
+      <c r="CK31" s="12"/>
+      <c r="CL31" s="12"/>
+      <c r="CM31" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="CN31" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="CO31" s="21"/>
+      <c r="CP31" s="21"/>
+      <c r="CQ31" s="12"/>
     </row>
-    <row r="32" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:95" s="1" customFormat="1">
       <c r="A32" s="14" t="s">
         <v>289</v>
       </c>
@@ -5520,23 +6451,33 @@
       <c r="BV32" s="14"/>
       <c r="BW32" s="14"/>
       <c r="BX32" s="14"/>
-      <c r="BY32" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="BY32" s="14"/>
       <c r="BZ32" s="14"/>
       <c r="CA32" s="14"/>
       <c r="CB32" s="14"/>
-      <c r="CC32" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="CD32" s="14" t="s">
-        <v>292</v>
-      </c>
+      <c r="CC32" s="14"/>
+      <c r="CD32" s="14"/>
       <c r="CE32" s="14"/>
       <c r="CF32" s="14"/>
       <c r="CG32" s="14"/>
+      <c r="CH32" s="14"/>
+      <c r="CI32" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="CJ32" s="14"/>
+      <c r="CK32" s="14"/>
+      <c r="CL32" s="14"/>
+      <c r="CM32" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="CN32" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="CO32" s="19"/>
+      <c r="CP32" s="19"/>
+      <c r="CQ32" s="14"/>
     </row>
-    <row r="33" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:96">
       <c r="A33" s="14" t="s">
         <v>293</v>
       </c>
@@ -5583,14 +6524,14 @@
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
-      <c r="AK33" s="14">
-        <v>1</v>
-      </c>
+      <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
       <c r="AM33" s="14"/>
       <c r="AN33" s="14"/>
       <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
+      <c r="AP33" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ33" s="14"/>
       <c r="AR33" s="14"/>
       <c r="AS33" s="14"/>
@@ -5623,27 +6564,37 @@
       <c r="BT33" s="14"/>
       <c r="BU33" s="14"/>
       <c r="BV33" s="14"/>
-      <c r="BW33" s="14" t="s">
-        <v>296</v>
-      </c>
+      <c r="BW33" s="14"/>
       <c r="BX33" s="14"/>
-      <c r="BY33" s="14" t="s">
-        <v>295</v>
-      </c>
+      <c r="BY33" s="14"/>
       <c r="BZ33" s="14"/>
       <c r="CA33" s="14"/>
       <c r="CB33" s="14"/>
-      <c r="CC33" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="CD33" s="14" t="s">
-        <v>292</v>
-      </c>
+      <c r="CC33" s="14"/>
+      <c r="CD33" s="14"/>
       <c r="CE33" s="14"/>
       <c r="CF33" s="14"/>
-      <c r="CG33" s="13"/>
+      <c r="CG33" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="CH33" s="14"/>
+      <c r="CI33" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="CJ33" s="14"/>
+      <c r="CK33" s="14"/>
+      <c r="CL33" s="14"/>
+      <c r="CM33" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="CN33" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="CO33" s="19"/>
+      <c r="CP33" s="19"/>
+      <c r="CQ33" s="13"/>
     </row>
-    <row r="34" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:96">
       <c r="A34" s="14" t="s">
         <v>303</v>
       </c>
@@ -5726,9 +6677,7 @@
       <c r="BR34" s="14"/>
       <c r="BS34" s="14"/>
       <c r="BT34" s="14"/>
-      <c r="BU34" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="BU34" s="14"/>
       <c r="BV34" s="14"/>
       <c r="BW34" s="14"/>
       <c r="BX34" s="14"/>
@@ -5736,17 +6685,29 @@
       <c r="BZ34" s="14"/>
       <c r="CA34" s="14"/>
       <c r="CB34" s="14"/>
-      <c r="CC34" s="14" t="s">
+      <c r="CC34" s="14"/>
+      <c r="CD34" s="14"/>
+      <c r="CE34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CF34" s="14"/>
+      <c r="CG34" s="14"/>
+      <c r="CH34" s="14"/>
+      <c r="CI34" s="14"/>
+      <c r="CJ34" s="14"/>
+      <c r="CK34" s="14"/>
+      <c r="CL34" s="14"/>
+      <c r="CM34" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="CD34" s="14" t="s">
+      <c r="CN34" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="CE34" s="14"/>
-      <c r="CF34" s="14"/>
-      <c r="CG34" s="13"/>
+      <c r="CO34" s="19"/>
+      <c r="CP34" s="19"/>
+      <c r="CQ34" s="13"/>
     </row>
-    <row r="35" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:96">
       <c r="A35" s="14" t="s">
         <v>306</v>
       </c>
@@ -5766,14 +6727,14 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
@@ -5804,18 +6765,18 @@
       <c r="AO35" s="14"/>
       <c r="AP35" s="14"/>
       <c r="AQ35" s="14"/>
-      <c r="AR35" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS35" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="AR35" s="14"/>
+      <c r="AS35" s="14"/>
       <c r="AT35" s="14"/>
       <c r="AU35" s="14"/>
       <c r="AV35" s="14"/>
       <c r="AW35" s="14"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
+      <c r="AX35" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY35" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="AZ35" s="14"/>
       <c r="BA35" s="14"/>
       <c r="BB35" s="14"/>
@@ -5838,26 +6799,36 @@
       <c r="BS35" s="14"/>
       <c r="BT35" s="14"/>
       <c r="BU35" s="14"/>
-      <c r="BV35" s="14" t="s">
-        <v>308</v>
-      </c>
+      <c r="BV35" s="14"/>
       <c r="BW35" s="14"/>
       <c r="BX35" s="14"/>
       <c r="BY35" s="14"/>
       <c r="BZ35" s="14"/>
       <c r="CA35" s="14"/>
       <c r="CB35" s="14"/>
-      <c r="CC35" s="14" t="s">
+      <c r="CC35" s="14"/>
+      <c r="CD35" s="14"/>
+      <c r="CE35" s="14"/>
+      <c r="CF35" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="CG35" s="14"/>
+      <c r="CH35" s="14"/>
+      <c r="CI35" s="14"/>
+      <c r="CJ35" s="14"/>
+      <c r="CK35" s="14"/>
+      <c r="CL35" s="14"/>
+      <c r="CM35" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="CD35" s="14" t="s">
+      <c r="CN35" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="CE35" s="14"/>
-      <c r="CF35" s="14"/>
-      <c r="CG35" s="13"/>
+      <c r="CO35" s="19"/>
+      <c r="CP35" s="19"/>
+      <c r="CQ35" s="13"/>
     </row>
-    <row r="36" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:96">
       <c r="A36" s="14" t="s">
         <v>316</v>
       </c>
@@ -5894,65 +6865,65 @@
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
-      <c r="AA36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="14"/>
+      <c r="AF36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
       <c r="AM36" s="14"/>
-      <c r="AN36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO36" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
       <c r="AP36" s="14"/>
       <c r="AQ36" s="14"/>
       <c r="AR36" s="14"/>
-      <c r="AS36" s="14"/>
-      <c r="AT36" s="14"/>
-      <c r="AU36" s="18"/>
-      <c r="AV36" s="18"/>
-      <c r="AW36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="12" t="s">
-        <v>78</v>
-      </c>
+      <c r="AS36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU36" s="2"/>
+      <c r="AV36" s="14"/>
+      <c r="AW36" s="14"/>
+      <c r="AX36" s="14"/>
       <c r="AY36" s="14"/>
       <c r="AZ36" s="14"/>
-      <c r="BA36" s="14"/>
-      <c r="BB36" s="14"/>
-      <c r="BC36" s="14"/>
-      <c r="BD36" s="14"/>
+      <c r="BA36" s="18"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD36" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="BE36" s="14"/>
       <c r="BF36" s="14"/>
       <c r="BG36" s="14"/>
-      <c r="BH36" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="BI36" s="14">
-        <v>4</v>
-      </c>
+      <c r="BH36" s="14"/>
+      <c r="BI36" s="14"/>
       <c r="BJ36" s="14"/>
       <c r="BK36" s="14"/>
       <c r="BL36" s="14"/>
       <c r="BM36" s="14"/>
       <c r="BN36" s="14"/>
       <c r="BO36" s="14"/>
-      <c r="BP36" s="14"/>
-      <c r="BQ36" s="14"/>
+      <c r="BP36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ36" s="14">
+        <v>4</v>
+      </c>
       <c r="BR36" s="14"/>
       <c r="BS36" s="14"/>
       <c r="BT36" s="14"/>
@@ -5964,17 +6935,27 @@
       <c r="BZ36" s="14"/>
       <c r="CA36" s="14"/>
       <c r="CB36" s="14"/>
-      <c r="CC36" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="CD36" s="14" t="s">
-        <v>310</v>
-      </c>
+      <c r="CC36" s="14"/>
+      <c r="CD36" s="14"/>
       <c r="CE36" s="14"/>
       <c r="CF36" s="14"/>
-      <c r="CG36" s="13"/>
+      <c r="CG36" s="14"/>
+      <c r="CH36" s="14"/>
+      <c r="CI36" s="14"/>
+      <c r="CJ36" s="14"/>
+      <c r="CK36" s="14"/>
+      <c r="CL36" s="14"/>
+      <c r="CM36" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="CN36" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="CO36" s="19"/>
+      <c r="CP36" s="19"/>
+      <c r="CQ36" s="13"/>
     </row>
-    <row r="37" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:96">
       <c r="A37" s="14" t="s">
         <v>321</v>
       </c>
@@ -6024,18 +7005,18 @@
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
       <c r="AM37" s="14"/>
-      <c r="AN37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO37" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
       <c r="AP37" s="14"/>
       <c r="AQ37" s="14"/>
       <c r="AR37" s="14"/>
-      <c r="AS37" s="14"/>
-      <c r="AT37" s="14"/>
-      <c r="AU37" s="14"/>
+      <c r="AS37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU37" s="2"/>
       <c r="AV37" s="14"/>
       <c r="AW37" s="14"/>
       <c r="AX37" s="14"/>
@@ -6062,26 +7043,36 @@
       <c r="BS37" s="14"/>
       <c r="BT37" s="14"/>
       <c r="BU37" s="14"/>
-      <c r="BV37" s="14" t="s">
-        <v>323</v>
-      </c>
+      <c r="BV37" s="14"/>
       <c r="BW37" s="14"/>
       <c r="BX37" s="14"/>
       <c r="BY37" s="14"/>
       <c r="BZ37" s="14"/>
       <c r="CA37" s="14"/>
       <c r="CB37" s="14"/>
-      <c r="CC37" s="14" t="s">
+      <c r="CC37" s="14"/>
+      <c r="CD37" s="14"/>
+      <c r="CE37" s="14"/>
+      <c r="CF37" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="CG37" s="14"/>
+      <c r="CH37" s="14"/>
+      <c r="CI37" s="14"/>
+      <c r="CJ37" s="14"/>
+      <c r="CK37" s="14"/>
+      <c r="CL37" s="14"/>
+      <c r="CM37" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="CD37" s="14" t="s">
+      <c r="CN37" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="CE37" s="14"/>
-      <c r="CF37" s="14"/>
-      <c r="CG37" s="13"/>
+      <c r="CO37" s="19"/>
+      <c r="CP37" s="19"/>
+      <c r="CQ37" s="13"/>
     </row>
-    <row r="38" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:96">
       <c r="A38" s="14" t="s">
         <v>325</v>
       </c>
@@ -6107,15 +7098,15 @@
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="Q38" s="14" t="s">
+      <c r="T38" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
@@ -6152,15 +7143,15 @@
       <c r="BB38" s="14"/>
       <c r="BC38" s="14"/>
       <c r="BD38" s="14"/>
-      <c r="BE38" s="14" t="s">
-        <v>330</v>
-      </c>
+      <c r="BE38" s="14"/>
       <c r="BF38" s="14"/>
       <c r="BG38" s="14"/>
       <c r="BH38" s="14"/>
       <c r="BI38" s="14"/>
       <c r="BJ38" s="14"/>
-      <c r="BK38" s="14"/>
+      <c r="BK38" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="BL38" s="14"/>
       <c r="BM38" s="14"/>
       <c r="BN38" s="14"/>
@@ -6178,17 +7169,27 @@
       <c r="BZ38" s="14"/>
       <c r="CA38" s="14"/>
       <c r="CB38" s="14"/>
-      <c r="CC38" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="CD38" s="14" t="s">
-        <v>332</v>
-      </c>
+      <c r="CC38" s="14"/>
+      <c r="CD38" s="14"/>
       <c r="CE38" s="14"/>
       <c r="CF38" s="14"/>
-      <c r="CG38" s="13"/>
+      <c r="CG38" s="14"/>
+      <c r="CH38" s="14"/>
+      <c r="CI38" s="14"/>
+      <c r="CJ38" s="14"/>
+      <c r="CK38" s="14"/>
+      <c r="CL38" s="14"/>
+      <c r="CM38" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN38" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="CO38" s="19"/>
+      <c r="CP38" s="19"/>
+      <c r="CQ38" s="13"/>
     </row>
-    <row r="39" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:96">
       <c r="A39" s="14" t="s">
         <v>333</v>
       </c>
@@ -6210,32 +7211,32 @@
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="M39" s="14" t="s">
+      <c r="O39" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W39" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="X39" s="2"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
+      <c r="AA39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
       <c r="AF39" s="14"/>
@@ -6264,20 +7265,20 @@
       <c r="BC39" s="14"/>
       <c r="BD39" s="14"/>
       <c r="BE39" s="14"/>
-      <c r="BF39" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="BG39" s="14" t="s">
-        <v>340</v>
-      </c>
+      <c r="BF39" s="14"/>
+      <c r="BG39" s="14"/>
       <c r="BH39" s="14"/>
       <c r="BI39" s="14"/>
       <c r="BJ39" s="14"/>
       <c r="BK39" s="14"/>
       <c r="BL39" s="14"/>
       <c r="BM39" s="14"/>
-      <c r="BN39" s="14"/>
-      <c r="BO39" s="14"/>
+      <c r="BN39" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="BO39" s="14" t="s">
+        <v>340</v>
+      </c>
       <c r="BP39" s="14"/>
       <c r="BQ39" s="14"/>
       <c r="BR39" s="14"/>
@@ -6287,23 +7288,33 @@
       <c r="BV39" s="14"/>
       <c r="BW39" s="14"/>
       <c r="BX39" s="14"/>
-      <c r="BY39" s="14" t="s">
-        <v>341</v>
-      </c>
+      <c r="BY39" s="14"/>
       <c r="BZ39" s="14"/>
       <c r="CA39" s="14"/>
       <c r="CB39" s="14"/>
-      <c r="CC39" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="CD39" s="14" t="s">
-        <v>342</v>
-      </c>
+      <c r="CC39" s="14"/>
+      <c r="CD39" s="14"/>
       <c r="CE39" s="14"/>
       <c r="CF39" s="14"/>
-      <c r="CG39" s="13"/>
+      <c r="CG39" s="14"/>
+      <c r="CH39" s="14"/>
+      <c r="CI39" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="CJ39" s="14"/>
+      <c r="CK39" s="14"/>
+      <c r="CL39" s="14"/>
+      <c r="CM39" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="CN39" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="CO39" s="19"/>
+      <c r="CP39" s="19"/>
+      <c r="CQ39" s="13"/>
     </row>
-    <row r="40" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:96">
       <c r="A40" s="14" t="s">
         <v>343</v>
       </c>
@@ -6329,15 +7340,15 @@
       <c r="M40" s="14"/>
       <c r="N40" s="14"/>
       <c r="O40" s="14"/>
-      <c r="P40" s="14" t="s">
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="Q40" s="14" t="s">
+      <c r="T40" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
@@ -6348,22 +7359,22 @@
       <c r="AB40" s="14"/>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
-      <c r="AE40" s="14">
-        <v>2</v>
-      </c>
+      <c r="AE40" s="14"/>
       <c r="AF40" s="14"/>
       <c r="AG40" s="14"/>
       <c r="AH40" s="14"/>
       <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14">
-        <v>4</v>
-      </c>
+      <c r="AJ40" s="14">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
       <c r="AM40" s="14"/>
       <c r="AN40" s="14"/>
       <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
+      <c r="AP40" s="14">
+        <v>4</v>
+      </c>
       <c r="AQ40" s="14"/>
       <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
@@ -6394,9 +7405,7 @@
       <c r="BR40" s="14"/>
       <c r="BS40" s="14"/>
       <c r="BT40" s="14"/>
-      <c r="BU40" s="14" t="s">
-        <v>189</v>
-      </c>
+      <c r="BU40" s="14"/>
       <c r="BV40" s="14"/>
       <c r="BW40" s="14"/>
       <c r="BX40" s="14"/>
@@ -6404,17 +7413,29 @@
       <c r="BZ40" s="14"/>
       <c r="CA40" s="14"/>
       <c r="CB40" s="14"/>
-      <c r="CC40" s="14" t="s">
+      <c r="CC40" s="14"/>
+      <c r="CD40" s="14"/>
+      <c r="CE40" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF40" s="14"/>
+      <c r="CG40" s="14"/>
+      <c r="CH40" s="14"/>
+      <c r="CI40" s="14"/>
+      <c r="CJ40" s="14"/>
+      <c r="CK40" s="14"/>
+      <c r="CL40" s="14"/>
+      <c r="CM40" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="CD40" s="14" t="s">
+      <c r="CN40" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="CE40" s="14"/>
-      <c r="CF40" s="14"/>
-      <c r="CG40" s="13"/>
+      <c r="CO40" s="19"/>
+      <c r="CP40" s="19"/>
+      <c r="CQ40" s="13"/>
     </row>
-    <row r="41" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:96">
       <c r="A41" s="14" t="s">
         <v>351</v>
       </c>
@@ -6436,11 +7457,11 @@
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -6507,20 +7528,30 @@
       <c r="BZ41" s="14"/>
       <c r="CA41" s="14"/>
       <c r="CB41" s="14"/>
-      <c r="CC41" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="CD41" s="14" t="s">
-        <v>355</v>
-      </c>
+      <c r="CC41" s="14"/>
+      <c r="CD41" s="14"/>
       <c r="CE41" s="14"/>
       <c r="CF41" s="14"/>
-      <c r="CG41" s="14" t="s">
+      <c r="CG41" s="14"/>
+      <c r="CH41" s="14"/>
+      <c r="CI41" s="14"/>
+      <c r="CJ41" s="14"/>
+      <c r="CK41" s="14"/>
+      <c r="CL41" s="14"/>
+      <c r="CM41" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="CN41" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="CO41" s="19"/>
+      <c r="CP41" s="19"/>
+      <c r="CQ41" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="CH41" s="1"/>
+      <c r="CR41" s="1"/>
     </row>
-    <row r="42" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:96">
       <c r="A42" s="14" t="s">
         <v>356</v>
       </c>
@@ -6552,17 +7583,17 @@
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
-      <c r="T42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
+      <c r="Y42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
       <c r="AC42" s="14"/>
@@ -6612,27 +7643,37 @@
       <c r="BU42" s="14"/>
       <c r="BV42" s="14"/>
       <c r="BW42" s="14"/>
-      <c r="BX42" s="14" t="s">
-        <v>138</v>
-      </c>
+      <c r="BX42" s="14"/>
       <c r="BY42" s="14"/>
       <c r="BZ42" s="14"/>
       <c r="CA42" s="14"/>
       <c r="CB42" s="14"/>
-      <c r="CC42" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="CD42" s="14" t="s">
-        <v>362</v>
-      </c>
+      <c r="CC42" s="14"/>
+      <c r="CD42" s="14"/>
       <c r="CE42" s="14"/>
       <c r="CF42" s="14"/>
-      <c r="CG42" s="14" t="s">
+      <c r="CG42" s="14"/>
+      <c r="CH42" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CI42" s="14"/>
+      <c r="CJ42" s="14"/>
+      <c r="CK42" s="14"/>
+      <c r="CL42" s="14"/>
+      <c r="CM42" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="CN42" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="CO42" s="19"/>
+      <c r="CP42" s="19"/>
+      <c r="CQ42" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="CH42" s="1"/>
+      <c r="CR42" s="1"/>
     </row>
-    <row r="43" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:96">
       <c r="A43" s="14" t="s">
         <v>363</v>
       </c>
@@ -6671,30 +7712,30 @@
       <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
-      <c r="AC43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
       <c r="AF43" s="14"/>
       <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
+      <c r="AH43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ43" s="14"/>
       <c r="AK43" s="14"/>
-      <c r="AL43" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM43" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
       <c r="AN43" s="14"/>
       <c r="AO43" s="14"/>
       <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
+      <c r="AQ43" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR43" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AS43" s="14"/>
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
@@ -6731,19 +7772,29 @@
       <c r="BZ43" s="14"/>
       <c r="CA43" s="14"/>
       <c r="CB43" s="14"/>
-      <c r="CC43" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="CD43" s="14" t="s">
-        <v>367</v>
-      </c>
+      <c r="CC43" s="14"/>
+      <c r="CD43" s="14"/>
       <c r="CE43" s="14"/>
       <c r="CF43" s="14"/>
-      <c r="CG43" s="14" t="s">
+      <c r="CG43" s="14"/>
+      <c r="CH43" s="14"/>
+      <c r="CI43" s="14"/>
+      <c r="CJ43" s="14"/>
+      <c r="CK43" s="14"/>
+      <c r="CL43" s="14"/>
+      <c r="CM43" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="CN43" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="CO43" s="19"/>
+      <c r="CP43" s="19"/>
+      <c r="CQ43" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:96">
       <c r="A44" s="14" t="s">
         <v>368</v>
       </c>
@@ -6826,23 +7877,33 @@
       <c r="BV44" s="14"/>
       <c r="BW44" s="14"/>
       <c r="BX44" s="14"/>
-      <c r="BY44" s="14" t="s">
-        <v>211</v>
-      </c>
+      <c r="BY44" s="14"/>
       <c r="BZ44" s="14"/>
       <c r="CA44" s="14"/>
       <c r="CB44" s="14"/>
-      <c r="CC44" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="CD44" s="14" t="s">
-        <v>371</v>
-      </c>
+      <c r="CC44" s="14"/>
+      <c r="CD44" s="14"/>
       <c r="CE44" s="14"/>
       <c r="CF44" s="14"/>
-      <c r="CG44" s="13"/>
+      <c r="CG44" s="14"/>
+      <c r="CH44" s="14"/>
+      <c r="CI44" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ44" s="14"/>
+      <c r="CK44" s="14"/>
+      <c r="CL44" s="14"/>
+      <c r="CM44" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="CN44" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="CO44" s="19"/>
+      <c r="CP44" s="19"/>
+      <c r="CQ44" s="13"/>
     </row>
-    <row r="45" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:96">
       <c r="A45" s="14" t="s">
         <v>372</v>
       </c>
@@ -6866,8 +7927,8 @@
       <c r="I45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
       <c r="O45" s="14"/>
@@ -6932,23 +7993,33 @@
       <c r="BV45" s="14"/>
       <c r="BW45" s="14"/>
       <c r="BX45" s="14"/>
-      <c r="BY45" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="BY45" s="14"/>
       <c r="BZ45" s="14"/>
       <c r="CA45" s="14"/>
       <c r="CB45" s="14"/>
-      <c r="CC45" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="CD45" s="17" t="s">
-        <v>376</v>
-      </c>
+      <c r="CC45" s="14"/>
+      <c r="CD45" s="14"/>
       <c r="CE45" s="14"/>
       <c r="CF45" s="14"/>
-      <c r="CG45" s="13"/>
+      <c r="CG45" s="14"/>
+      <c r="CH45" s="14"/>
+      <c r="CI45" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="CJ45" s="14"/>
+      <c r="CK45" s="14"/>
+      <c r="CL45" s="14"/>
+      <c r="CM45" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="CN45" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="CO45" s="19"/>
+      <c r="CP45" s="19"/>
+      <c r="CQ45" s="13"/>
     </row>
-    <row r="46" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:96">
       <c r="A46" s="14" t="s">
         <v>377</v>
       </c>
@@ -7004,25 +8075,25 @@
       <c r="AQ46" s="14"/>
       <c r="AR46" s="14"/>
       <c r="AS46" s="14"/>
-      <c r="AT46" s="14">
-        <v>1</v>
-      </c>
+      <c r="AT46" s="14"/>
       <c r="AU46" s="14"/>
       <c r="AV46" s="14"/>
       <c r="AW46" s="14"/>
       <c r="AX46" s="14"/>
       <c r="AY46" s="14"/>
-      <c r="AZ46" s="14"/>
+      <c r="AZ46" s="14">
+        <v>1</v>
+      </c>
       <c r="BA46" s="14"/>
-      <c r="BB46" s="14">
-        <v>1</v>
-      </c>
+      <c r="BB46" s="14"/>
       <c r="BC46" s="14"/>
       <c r="BD46" s="14"/>
       <c r="BE46" s="14"/>
       <c r="BF46" s="14"/>
       <c r="BG46" s="14"/>
-      <c r="BH46" s="14"/>
+      <c r="BH46" s="14">
+        <v>1</v>
+      </c>
       <c r="BI46" s="14"/>
       <c r="BJ46" s="14"/>
       <c r="BK46" s="14"/>
@@ -7035,28 +8106,38 @@
       <c r="BR46" s="14"/>
       <c r="BS46" s="14"/>
       <c r="BT46" s="14"/>
+      <c r="BU46" s="14"/>
       <c r="BV46" s="14"/>
       <c r="BW46" s="14"/>
       <c r="BX46" s="14"/>
-      <c r="BY46" s="14" t="s">
-        <v>380</v>
-      </c>
+      <c r="BY46" s="14"/>
       <c r="BZ46" s="14"/>
       <c r="CA46" s="14"/>
       <c r="CB46" s="14"/>
-      <c r="CC46" s="14" t="s">
+      <c r="CC46" s="14"/>
+      <c r="CD46" s="14"/>
+      <c r="CF46" s="14"/>
+      <c r="CG46" s="14"/>
+      <c r="CH46" s="14"/>
+      <c r="CI46" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="CJ46" s="14"/>
+      <c r="CK46" s="14"/>
+      <c r="CL46" s="14"/>
+      <c r="CM46" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="CD46" s="17" t="s">
+      <c r="CN46" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="CE46" s="14"/>
-      <c r="CF46" s="14"/>
-      <c r="CG46" s="14" t="s">
+      <c r="CO46" s="19"/>
+      <c r="CP46" s="19"/>
+      <c r="CQ46" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="47" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:96">
       <c r="A47" s="14" t="s">
         <v>383</v>
       </c>
@@ -7088,52 +8169,52 @@
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
-      <c r="V47" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="W47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X47" s="1"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD47" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="AA47" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="14"/>
       <c r="AE47" s="14"/>
       <c r="AF47" s="14"/>
       <c r="AG47" s="14"/>
-      <c r="AH47" s="14"/>
-      <c r="AI47" s="14"/>
+      <c r="AH47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI47" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ47" s="14"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="14"/>
       <c r="AM47" s="14"/>
-      <c r="AN47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO47" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
       <c r="AP47" s="14"/>
       <c r="AQ47" s="14"/>
-      <c r="AR47" s="14" t="s">
-        <v>176</v>
-      </c>
+      <c r="AR47" s="14"/>
       <c r="AS47" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT47" s="14"/>
-      <c r="AU47" s="14"/>
+        <v>4</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU47" s="2"/>
       <c r="AV47" s="14"/>
       <c r="AW47" s="14"/>
-      <c r="AX47" s="14"/>
-      <c r="AY47" s="14"/>
+      <c r="AX47" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY47" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="AZ47" s="14"/>
       <c r="BA47" s="14"/>
       <c r="BB47" s="14"/>
@@ -7158,26 +8239,36 @@
       <c r="BU47" s="14"/>
       <c r="BV47" s="14"/>
       <c r="BW47" s="14"/>
-      <c r="BX47" s="14" t="s">
-        <v>385</v>
-      </c>
+      <c r="BX47" s="14"/>
       <c r="BY47" s="14"/>
       <c r="BZ47" s="14"/>
       <c r="CA47" s="14"/>
       <c r="CB47" s="14"/>
-      <c r="CC47" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="CD47" s="14" t="s">
-        <v>387</v>
-      </c>
+      <c r="CC47" s="14"/>
+      <c r="CD47" s="14"/>
       <c r="CE47" s="14"/>
       <c r="CF47" s="14"/>
-      <c r="CG47" s="14" t="s">
+      <c r="CG47" s="14"/>
+      <c r="CH47" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="CI47" s="14"/>
+      <c r="CJ47" s="14"/>
+      <c r="CK47" s="14"/>
+      <c r="CL47" s="14"/>
+      <c r="CM47" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="CN47" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="CO47" s="19"/>
+      <c r="CP47" s="19"/>
+      <c r="CQ47" s="14" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="48" spans="1:86" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:96">
       <c r="A48" s="14" t="s">
         <v>388</v>
       </c>
@@ -7211,48 +8302,48 @@
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
-      <c r="X48" s="14" t="s">
-        <v>391</v>
-      </c>
+      <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
-      <c r="AC48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD48" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="AC48" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
       <c r="AF48" s="14"/>
       <c r="AG48" s="14"/>
-      <c r="AH48" s="14"/>
-      <c r="AI48" s="14"/>
+      <c r="AH48" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI48" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="AJ48" s="14"/>
       <c r="AK48" s="14"/>
-      <c r="AL48" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM48" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AL48" s="14"/>
+      <c r="AM48" s="14"/>
       <c r="AN48" s="14"/>
       <c r="AO48" s="14"/>
       <c r="AP48" s="14"/>
-      <c r="AQ48" s="14"/>
-      <c r="AR48" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS48" s="2" t="s">
-        <v>194</v>
-      </c>
+      <c r="AQ48" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS48" s="14"/>
       <c r="AT48" s="14"/>
       <c r="AU48" s="14"/>
       <c r="AV48" s="14"/>
       <c r="AW48" s="14"/>
-      <c r="AX48" s="14"/>
-      <c r="AY48" s="14"/>
+      <c r="AX48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AY48" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="AZ48" s="14"/>
       <c r="BA48" s="14"/>
       <c r="BB48" s="14"/>
@@ -7277,26 +8368,36 @@
       <c r="BU48" s="14"/>
       <c r="BV48" s="14"/>
       <c r="BW48" s="14"/>
-      <c r="BX48" s="14" t="s">
-        <v>392</v>
-      </c>
+      <c r="BX48" s="14"/>
       <c r="BY48" s="14"/>
       <c r="BZ48" s="14"/>
       <c r="CA48" s="14"/>
       <c r="CB48" s="14"/>
-      <c r="CC48" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="CD48" s="14" t="s">
-        <v>393</v>
-      </c>
+      <c r="CC48" s="14"/>
+      <c r="CD48" s="14"/>
       <c r="CE48" s="14"/>
       <c r="CF48" s="14"/>
-      <c r="CG48" s="14" t="s">
+      <c r="CG48" s="14"/>
+      <c r="CH48" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="CI48" s="14"/>
+      <c r="CJ48" s="14"/>
+      <c r="CK48" s="14"/>
+      <c r="CL48" s="14"/>
+      <c r="CM48" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="CN48" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="CO48" s="19"/>
+      <c r="CP48" s="19"/>
+      <c r="CQ48" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="49" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:95">
       <c r="A49" s="14" t="s">
         <v>394</v>
       </c>
@@ -7328,28 +8429,28 @@
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
-      <c r="V49" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="W49" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD49" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="AA49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC49" s="14"/>
+      <c r="AD49" s="14"/>
       <c r="AE49" s="14"/>
       <c r="AF49" s="14"/>
       <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
+      <c r="AH49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI49" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="AJ49" s="14"/>
       <c r="AK49" s="14"/>
       <c r="AL49" s="14"/>
@@ -7358,25 +8459,25 @@
       <c r="AO49" s="14"/>
       <c r="AP49" s="14"/>
       <c r="AQ49" s="14"/>
-      <c r="AR49" s="14" t="s">
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="14"/>
+      <c r="AX49" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="AS49" s="14" t="s">
+      <c r="AY49" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="14" t="s">
+      <c r="AZ49" s="14"/>
+      <c r="BA49" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="AV49" s="14" t="s">
+      <c r="BB49" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AW49" s="14"/>
-      <c r="AX49" s="14"/>
-      <c r="AY49" s="14"/>
-      <c r="AZ49" s="14"/>
-      <c r="BA49" s="14"/>
-      <c r="BB49" s="14"/>
       <c r="BC49" s="14"/>
       <c r="BD49" s="14"/>
       <c r="BE49" s="14"/>
@@ -7394,36 +8495,46 @@
       <c r="BQ49" s="14"/>
       <c r="BR49" s="14"/>
       <c r="BS49" s="14"/>
-      <c r="BT49" s="14" t="s">
-        <v>406</v>
-      </c>
+      <c r="BT49" s="14"/>
       <c r="BU49" s="14"/>
-      <c r="BV49" s="14" t="s">
-        <v>407</v>
-      </c>
+      <c r="BV49" s="14"/>
       <c r="BW49" s="14"/>
-      <c r="BX49" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="BY49" s="14" t="s">
-        <v>403</v>
-      </c>
+      <c r="BX49" s="14"/>
+      <c r="BY49" s="14"/>
       <c r="BZ49" s="14"/>
       <c r="CA49" s="14"/>
       <c r="CB49" s="14"/>
-      <c r="CC49" s="14" t="s">
+      <c r="CC49" s="14"/>
+      <c r="CD49" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="CE49" s="14"/>
+      <c r="CF49" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="CG49" s="14"/>
+      <c r="CH49" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="CI49" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="CJ49" s="14"/>
+      <c r="CK49" s="14"/>
+      <c r="CL49" s="14"/>
+      <c r="CM49" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="CD49" s="14" t="s">
+      <c r="CN49" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="CE49" s="14"/>
-      <c r="CF49" s="14"/>
-      <c r="CG49" s="14" t="s">
+      <c r="CO49" s="19"/>
+      <c r="CP49" s="19"/>
+      <c r="CQ49" s="14" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:95">
       <c r="A50" s="14" t="s">
         <v>411</v>
       </c>
@@ -7494,9 +8605,7 @@
       <c r="BF50" s="14"/>
       <c r="BG50" s="14"/>
       <c r="BH50" s="14"/>
-      <c r="BI50" s="14">
-        <v>4</v>
-      </c>
+      <c r="BI50" s="14"/>
       <c r="BJ50" s="14"/>
       <c r="BK50" s="14"/>
       <c r="BL50" s="14"/>
@@ -7504,7 +8613,9 @@
       <c r="BN50" s="14"/>
       <c r="BO50" s="14"/>
       <c r="BP50" s="14"/>
-      <c r="BQ50" s="14"/>
+      <c r="BQ50" s="14">
+        <v>4</v>
+      </c>
       <c r="BR50" s="14"/>
       <c r="BS50" s="14"/>
       <c r="BT50" s="14"/>
@@ -7512,23 +8623,33 @@
       <c r="BV50" s="14"/>
       <c r="BW50" s="14"/>
       <c r="BX50" s="14"/>
-      <c r="BY50" s="14" t="s">
-        <v>211</v>
-      </c>
+      <c r="BY50" s="14"/>
       <c r="BZ50" s="14"/>
       <c r="CA50" s="14"/>
       <c r="CB50" s="14"/>
-      <c r="CC50" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD50" s="14" t="s">
-        <v>414</v>
-      </c>
+      <c r="CC50" s="14"/>
+      <c r="CD50" s="14"/>
       <c r="CE50" s="14"/>
       <c r="CF50" s="14"/>
-      <c r="CG50" s="13"/>
+      <c r="CG50" s="14"/>
+      <c r="CH50" s="14"/>
+      <c r="CI50" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ50" s="14"/>
+      <c r="CK50" s="14"/>
+      <c r="CL50" s="14"/>
+      <c r="CM50" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="CN50" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="CO50" s="19"/>
+      <c r="CP50" s="19"/>
+      <c r="CQ50" s="13"/>
     </row>
-    <row r="51" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:95">
       <c r="A51" s="14" t="s">
         <v>415</v>
       </c>
@@ -7556,17 +8677,17 @@
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
-      <c r="R51" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="S51" s="14" t="s">
-        <v>420</v>
-      </c>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
       <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="14"/>
+      <c r="W51" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X51" s="14" t="s">
+        <v>420</v>
+      </c>
       <c r="Y51" s="14"/>
       <c r="Z51" s="14"/>
       <c r="AA51" s="14"/>
@@ -7619,23 +8740,33 @@
       <c r="BV51" s="14"/>
       <c r="BW51" s="14"/>
       <c r="BX51" s="14"/>
-      <c r="BY51" s="14" t="s">
-        <v>421</v>
-      </c>
+      <c r="BY51" s="14"/>
       <c r="BZ51" s="14"/>
       <c r="CA51" s="14"/>
       <c r="CB51" s="14"/>
-      <c r="CC51" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD51" s="14" t="s">
-        <v>422</v>
-      </c>
+      <c r="CC51" s="14"/>
+      <c r="CD51" s="14"/>
       <c r="CE51" s="14"/>
       <c r="CF51" s="14"/>
-      <c r="CG51" s="13"/>
+      <c r="CG51" s="14"/>
+      <c r="CH51" s="14"/>
+      <c r="CI51" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="CJ51" s="14"/>
+      <c r="CK51" s="14"/>
+      <c r="CL51" s="14"/>
+      <c r="CM51" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="CN51" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="CO51" s="19"/>
+      <c r="CP51" s="19"/>
+      <c r="CQ51" s="13"/>
     </row>
-    <row r="52" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:95">
       <c r="A52" s="14" t="s">
         <v>423</v>
       </c>
@@ -7718,23 +8849,33 @@
       <c r="BV52" s="14"/>
       <c r="BW52" s="14"/>
       <c r="BX52" s="14"/>
-      <c r="BY52" s="14" t="s">
-        <v>425</v>
-      </c>
+      <c r="BY52" s="14"/>
       <c r="BZ52" s="14"/>
       <c r="CA52" s="14"/>
       <c r="CB52" s="14"/>
-      <c r="CC52" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD52" s="14" t="s">
-        <v>426</v>
-      </c>
+      <c r="CC52" s="14"/>
+      <c r="CD52" s="14"/>
       <c r="CE52" s="14"/>
       <c r="CF52" s="14"/>
-      <c r="CG52" s="13"/>
+      <c r="CG52" s="14"/>
+      <c r="CH52" s="14"/>
+      <c r="CI52" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="CJ52" s="14"/>
+      <c r="CK52" s="14"/>
+      <c r="CL52" s="14"/>
+      <c r="CM52" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="CN52" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="CO52" s="19"/>
+      <c r="CP52" s="19"/>
+      <c r="CQ52" s="13"/>
     </row>
-    <row r="53" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:95">
       <c r="A53" s="14" t="s">
         <v>427</v>
       </c>
@@ -7781,14 +8922,14 @@
       <c r="AH53" s="14"/>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="14"/>
-      <c r="AK53" s="14">
-        <v>4</v>
-      </c>
+      <c r="AK53" s="14"/>
       <c r="AL53" s="14"/>
       <c r="AM53" s="14"/>
       <c r="AN53" s="14"/>
       <c r="AO53" s="14"/>
-      <c r="AP53" s="14"/>
+      <c r="AP53" s="14">
+        <v>4</v>
+      </c>
       <c r="AQ53" s="14"/>
       <c r="AR53" s="14"/>
       <c r="AS53" s="14"/>
@@ -7827,17 +8968,27 @@
       <c r="BZ53" s="14"/>
       <c r="CA53" s="14"/>
       <c r="CB53" s="14"/>
-      <c r="CC53" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="CD53" s="14" t="s">
-        <v>430</v>
-      </c>
+      <c r="CC53" s="14"/>
+      <c r="CD53" s="14"/>
       <c r="CE53" s="14"/>
       <c r="CF53" s="14"/>
-      <c r="CG53" s="13"/>
+      <c r="CG53" s="14"/>
+      <c r="CH53" s="14"/>
+      <c r="CI53" s="14"/>
+      <c r="CJ53" s="14"/>
+      <c r="CK53" s="14"/>
+      <c r="CL53" s="14"/>
+      <c r="CM53" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="CN53" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="CO53" s="19"/>
+      <c r="CP53" s="19"/>
+      <c r="CQ53" s="13"/>
     </row>
-    <row r="54" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:95">
       <c r="A54" s="14" t="s">
         <v>431</v>
       </c>
@@ -7889,18 +9040,18 @@
       <c r="AM54" s="14"/>
       <c r="AN54" s="14"/>
       <c r="AO54" s="14"/>
-      <c r="AP54" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="AQ54" s="14" t="s">
-        <v>434</v>
-      </c>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14"/>
       <c r="AR54" s="14"/>
       <c r="AS54" s="14"/>
       <c r="AT54" s="14"/>
       <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="14"/>
+      <c r="AV54" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="AW54" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="AX54" s="14"/>
       <c r="AY54" s="14"/>
       <c r="AZ54" s="14"/>
@@ -7913,44 +9064,54 @@
       <c r="BG54" s="14"/>
       <c r="BH54" s="14"/>
       <c r="BI54" s="14"/>
-      <c r="BJ54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="BK54" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="BJ54" s="14"/>
+      <c r="BK54" s="14"/>
       <c r="BL54" s="14"/>
       <c r="BM54" s="14"/>
       <c r="BN54" s="14"/>
       <c r="BO54" s="14"/>
       <c r="BP54" s="14"/>
       <c r="BQ54" s="14"/>
-      <c r="BR54" s="14"/>
-      <c r="BS54" s="14"/>
+      <c r="BR54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BS54" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="BT54" s="14"/>
       <c r="BU54" s="14"/>
       <c r="BV54" s="14"/>
       <c r="BW54" s="14"/>
-      <c r="BX54" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="BX54" s="14"/>
       <c r="BY54" s="14"/>
       <c r="BZ54" s="14"/>
       <c r="CA54" s="14"/>
       <c r="CB54" s="14"/>
-      <c r="CC54" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="CD54" s="14" t="s">
-        <v>437</v>
-      </c>
+      <c r="CC54" s="14"/>
+      <c r="CD54" s="14"/>
       <c r="CE54" s="14"/>
       <c r="CF54" s="14"/>
-      <c r="CG54" s="14" t="s">
+      <c r="CG54" s="14"/>
+      <c r="CH54" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI54" s="14"/>
+      <c r="CJ54" s="14"/>
+      <c r="CK54" s="14"/>
+      <c r="CL54" s="14"/>
+      <c r="CM54" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="CN54" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="CO54" s="19"/>
+      <c r="CP54" s="19"/>
+      <c r="CQ54" s="14" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:95">
       <c r="A55" s="14" t="s">
         <v>438</v>
       </c>
@@ -7976,17 +9137,17 @@
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
-      <c r="P55" s="2" t="s">
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="T55" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="W55" s="14"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
@@ -8040,34 +9201,54 @@
       <c r="BU55" s="14"/>
       <c r="BV55" s="14"/>
       <c r="BW55" s="14"/>
-      <c r="BX55" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="BY55" s="14" t="s">
-        <v>440</v>
-      </c>
+      <c r="BX55" s="14"/>
+      <c r="BY55" s="14"/>
       <c r="BZ55" s="14"/>
       <c r="CA55" s="14"/>
       <c r="CB55" s="14"/>
-      <c r="CC55" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="CD55" s="14" t="s">
-        <v>437</v>
-      </c>
+      <c r="CC55" s="14"/>
+      <c r="CD55" s="14"/>
       <c r="CE55" s="14"/>
       <c r="CF55" s="14"/>
-      <c r="CG55" s="14" t="s">
+      <c r="CG55" s="14"/>
+      <c r="CH55" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="CI55" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="CJ55" s="14"/>
+      <c r="CK55" s="14"/>
+      <c r="CL55" s="14"/>
+      <c r="CM55" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="CN55" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="CO55" s="19"/>
+      <c r="CP55" s="19"/>
+      <c r="CQ55" s="14" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="56" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
+    <row r="56" spans="1:95">
+      <c r="A56" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
+      <c r="E56" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -8080,10 +9261,14 @@
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
+      <c r="S56" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
       <c r="W56" s="14"/>
       <c r="X56" s="14"/>
       <c r="Y56" s="14"/>
@@ -8118,7 +9303,9 @@
       <c r="BB56" s="14"/>
       <c r="BC56" s="14"/>
       <c r="BD56" s="14"/>
-      <c r="BE56" s="14"/>
+      <c r="BE56" s="14">
+        <v>9</v>
+      </c>
       <c r="BF56" s="14"/>
       <c r="BG56" s="14"/>
       <c r="BH56" s="14"/>
@@ -8130,7 +9317,9 @@
       <c r="BN56" s="14"/>
       <c r="BO56" s="14"/>
       <c r="BP56" s="14"/>
-      <c r="BQ56" s="14"/>
+      <c r="BQ56" s="14">
+        <v>1</v>
+      </c>
       <c r="BR56" s="14"/>
       <c r="BS56" s="14"/>
       <c r="BT56" s="14"/>
@@ -8146,15 +9335,43 @@
       <c r="CD56" s="14"/>
       <c r="CE56" s="14"/>
       <c r="CF56" s="14"/>
-      <c r="CG56" s="13"/>
+      <c r="CG56" s="14"/>
+      <c r="CH56" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="CI56" s="14"/>
+      <c r="CJ56" s="14"/>
+      <c r="CK56" s="14"/>
+      <c r="CL56" s="14"/>
+      <c r="CM56" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="CN56" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="CO56" s="19"/>
+      <c r="CP56" s="19"/>
+      <c r="CQ56" s="13"/>
     </row>
-    <row r="57" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+    <row r="57" spans="1:95">
+      <c r="A57" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>449</v>
+      </c>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -8167,16 +9384,24 @@
       <c r="P57" s="14"/>
       <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
-      <c r="S57" s="14"/>
-      <c r="T57" s="14"/>
+      <c r="S57" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="T57" s="14" t="s">
+        <v>335</v>
+      </c>
       <c r="U57" s="14"/>
       <c r="V57" s="14"/>
       <c r="W57" s="14"/>
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
+      <c r="AA57" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="AC57" s="14"/>
       <c r="AD57" s="14"/>
       <c r="AE57" s="14"/>
@@ -8190,7 +9415,9 @@
       <c r="AM57" s="14"/>
       <c r="AN57" s="14"/>
       <c r="AO57" s="14"/>
-      <c r="AP57" s="14"/>
+      <c r="AP57" s="14">
+        <v>1</v>
+      </c>
       <c r="AQ57" s="14"/>
       <c r="AR57" s="14"/>
       <c r="AS57" s="14"/>
@@ -8198,8 +9425,12 @@
       <c r="AU57" s="14"/>
       <c r="AV57" s="14"/>
       <c r="AW57" s="14"/>
-      <c r="AX57" s="14"/>
-      <c r="AY57" s="14"/>
+      <c r="AX57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY57" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AZ57" s="14"/>
       <c r="BA57" s="14"/>
       <c r="BB57" s="14"/>
@@ -8233,15 +9464,43 @@
       <c r="CD57" s="14"/>
       <c r="CE57" s="14"/>
       <c r="CF57" s="14"/>
-      <c r="CG57" s="13"/>
+      <c r="CG57" s="14"/>
+      <c r="CH57" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI57" s="14"/>
+      <c r="CJ57" s="14"/>
+      <c r="CK57" s="14"/>
+      <c r="CL57" s="14"/>
+      <c r="CM57" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="CN57" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="CO57" s="19"/>
+      <c r="CP57" s="19"/>
+      <c r="CQ57" s="14" t="s">
+        <v>452</v>
+      </c>
     </row>
-    <row r="58" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
+    <row r="58" spans="1:95">
+      <c r="A58" s="14" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
+      <c r="E58" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
@@ -8269,8 +9528,12 @@
       <c r="AE58" s="14"/>
       <c r="AF58" s="14"/>
       <c r="AG58" s="14"/>
-      <c r="AH58" s="14"/>
-      <c r="AI58" s="14"/>
+      <c r="AH58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="AJ58" s="14"/>
       <c r="AK58" s="14"/>
       <c r="AL58" s="14"/>
@@ -8318,17 +9581,45 @@
       <c r="CB58" s="14"/>
       <c r="CC58" s="14"/>
       <c r="CD58" s="14"/>
-      <c r="CE58" s="14"/>
+      <c r="CE58" s="14" t="s">
+        <v>455</v>
+      </c>
       <c r="CF58" s="14"/>
-      <c r="CG58" s="13"/>
+      <c r="CG58" s="14"/>
+      <c r="CH58" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="CI58" s="14"/>
+      <c r="CJ58" s="14"/>
+      <c r="CK58" s="14"/>
+      <c r="CL58" s="14"/>
+      <c r="CM58" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="CN58" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="CO58" s="19"/>
+      <c r="CP58" s="19"/>
+      <c r="CQ58" s="13"/>
     </row>
-    <row r="59" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
+    <row r="59" spans="1:95">
+      <c r="A59" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
+      <c r="E59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
@@ -8340,11 +9631,15 @@
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
-      <c r="S59" s="14"/>
-      <c r="T59" s="14"/>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
       <c r="W59" s="14"/>
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
@@ -8391,7 +9686,9 @@
       <c r="BN59" s="14"/>
       <c r="BO59" s="14"/>
       <c r="BP59" s="14"/>
-      <c r="BQ59" s="14"/>
+      <c r="BQ59" s="14">
+        <v>4</v>
+      </c>
       <c r="BR59" s="14"/>
       <c r="BS59" s="14"/>
       <c r="BT59" s="14"/>
@@ -8402,20 +9699,50 @@
       <c r="BY59" s="14"/>
       <c r="BZ59" s="14"/>
       <c r="CA59" s="14"/>
-      <c r="CB59" s="14"/>
-      <c r="CC59" s="14"/>
+      <c r="CB59" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="CC59" s="14" t="s">
+        <v>464</v>
+      </c>
       <c r="CD59" s="14"/>
       <c r="CE59" s="14"/>
       <c r="CF59" s="14"/>
-      <c r="CG59" s="13"/>
+      <c r="CG59" s="14"/>
+      <c r="CH59" s="14"/>
+      <c r="CI59" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ59" s="14"/>
+      <c r="CK59" s="14"/>
+      <c r="CL59" s="14"/>
+      <c r="CM59" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="CN59" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="CO59" s="19"/>
+      <c r="CP59" s="19"/>
+      <c r="CQ59" s="13"/>
     </row>
-    <row r="60" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A60" s="14"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
+    <row r="60" spans="1:95">
+      <c r="A60" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
+      <c r="E60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
@@ -8427,7 +9754,9 @@
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
-      <c r="R60" s="14"/>
+      <c r="R60" s="14">
+        <v>3</v>
+      </c>
       <c r="S60" s="14"/>
       <c r="T60" s="14"/>
       <c r="U60" s="14"/>
@@ -8445,7 +9774,9 @@
       <c r="AG60" s="14"/>
       <c r="AH60" s="14"/>
       <c r="AI60" s="14"/>
-      <c r="AJ60" s="14"/>
+      <c r="AJ60" s="14">
+        <v>1</v>
+      </c>
       <c r="AK60" s="14"/>
       <c r="AL60" s="14"/>
       <c r="AM60" s="14"/>
@@ -8494,15 +9825,39 @@
       <c r="CD60" s="14"/>
       <c r="CE60" s="14"/>
       <c r="CF60" s="14"/>
-      <c r="CG60" s="13"/>
+      <c r="CG60" s="14"/>
+      <c r="CH60" s="14"/>
+      <c r="CI60" s="14"/>
+      <c r="CJ60" s="14"/>
+      <c r="CK60" s="14"/>
+      <c r="CL60" s="14"/>
+      <c r="CM60" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="CN60" s="14" t="s">
+        <v>469</v>
+      </c>
+      <c r="CO60" s="19"/>
+      <c r="CP60" s="19"/>
+      <c r="CQ60" s="13"/>
     </row>
-    <row r="61" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+    <row r="61" spans="1:95">
+      <c r="A61" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
+      <c r="E61" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
@@ -8553,10 +9908,14 @@
       <c r="BB61" s="14"/>
       <c r="BC61" s="14"/>
       <c r="BD61" s="14"/>
-      <c r="BE61" s="14"/>
+      <c r="BE61" s="14">
+        <v>3</v>
+      </c>
       <c r="BF61" s="14"/>
       <c r="BG61" s="14"/>
-      <c r="BH61" s="14"/>
+      <c r="BH61" s="14">
+        <v>1</v>
+      </c>
       <c r="BI61" s="14"/>
       <c r="BJ61" s="14"/>
       <c r="BK61" s="14"/>
@@ -8579,17 +9938,47 @@
       <c r="CB61" s="14"/>
       <c r="CC61" s="14"/>
       <c r="CD61" s="14"/>
-      <c r="CE61" s="14"/>
-      <c r="CF61" s="14"/>
-      <c r="CG61" s="13"/>
+      <c r="CE61" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="CF61" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="CG61" s="14"/>
+      <c r="CH61" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="CI61" s="14"/>
+      <c r="CJ61" s="14"/>
+      <c r="CK61" s="14"/>
+      <c r="CL61" s="14"/>
+      <c r="CM61" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="CN61" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="CO61" s="19"/>
+      <c r="CP61" s="19"/>
+      <c r="CQ61" s="13"/>
     </row>
-    <row r="62" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
+    <row r="62" spans="1:95">
+      <c r="A62" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
+      <c r="E62" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>480</v>
+      </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
@@ -8619,7 +10008,9 @@
       <c r="AG62" s="14"/>
       <c r="AH62" s="14"/>
       <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
+      <c r="AJ62" s="14">
+        <v>3</v>
+      </c>
       <c r="AK62" s="14"/>
       <c r="AL62" s="14"/>
       <c r="AM62" s="14"/>
@@ -8640,7 +10031,9 @@
       <c r="BB62" s="14"/>
       <c r="BC62" s="14"/>
       <c r="BD62" s="14"/>
-      <c r="BE62" s="14"/>
+      <c r="BE62" s="14">
+        <v>6</v>
+      </c>
       <c r="BF62" s="14"/>
       <c r="BG62" s="14"/>
       <c r="BH62" s="14"/>
@@ -8666,17 +10059,47 @@
       <c r="CB62" s="14"/>
       <c r="CC62" s="14"/>
       <c r="CD62" s="14"/>
-      <c r="CE62" s="14"/>
-      <c r="CF62" s="14"/>
-      <c r="CG62" s="13"/>
+      <c r="CE62" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="CF62" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="CG62" s="14"/>
+      <c r="CH62" s="14"/>
+      <c r="CI62" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="CJ62" s="14"/>
+      <c r="CK62" s="14"/>
+      <c r="CL62" s="14"/>
+      <c r="CM62" s="14" t="s">
+        <v>474</v>
+      </c>
+      <c r="CN62" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="CO62" s="19"/>
+      <c r="CP62" s="19"/>
+      <c r="CQ62" s="13"/>
     </row>
-    <row r="63" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A63" s="14"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
+    <row r="63" spans="1:95">
+      <c r="A63" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
+      <c r="E63" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
@@ -8754,16 +10177,44 @@
       <c r="CC63" s="14"/>
       <c r="CD63" s="14"/>
       <c r="CE63" s="14"/>
-      <c r="CF63" s="14"/>
-      <c r="CG63" s="13"/>
+      <c r="CF63" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="CG63" s="14"/>
+      <c r="CH63" s="14"/>
+      <c r="CI63" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="CJ63" s="14"/>
+      <c r="CK63" s="14"/>
+      <c r="CL63" s="14"/>
+      <c r="CM63" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="CN63" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="CO63" s="19"/>
+      <c r="CP63" s="19"/>
+      <c r="CQ63" s="13"/>
     </row>
-    <row r="64" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
+    <row r="64" spans="1:95">
+      <c r="A64" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="E64" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>490</v>
+      </c>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
@@ -8794,8 +10245,12 @@
       <c r="AH64" s="14"/>
       <c r="AI64" s="14"/>
       <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
+      <c r="AK64" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="AL64" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="AM64" s="14"/>
       <c r="AN64" s="14"/>
       <c r="AO64" s="14"/>
@@ -8842,15 +10297,45 @@
       <c r="CD64" s="14"/>
       <c r="CE64" s="14"/>
       <c r="CF64" s="14"/>
-      <c r="CG64" s="13"/>
+      <c r="CG64" s="14"/>
+      <c r="CH64" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI64" s="14"/>
+      <c r="CJ64" s="14"/>
+      <c r="CK64" s="14"/>
+      <c r="CL64" s="14"/>
+      <c r="CM64" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="CN64" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="CO64" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="CP64" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="CQ64" s="13"/>
     </row>
-    <row r="65" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
+    <row r="65" spans="1:95">
+      <c r="A65" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
+      <c r="E65" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
@@ -8886,7 +10371,9 @@
       <c r="AM65" s="14"/>
       <c r="AN65" s="14"/>
       <c r="AO65" s="14"/>
-      <c r="AP65" s="14"/>
+      <c r="AP65" s="14">
+        <v>6</v>
+      </c>
       <c r="AQ65" s="14"/>
       <c r="AR65" s="14"/>
       <c r="AS65" s="14"/>
@@ -8902,14 +10389,22 @@
       <c r="BC65" s="14"/>
       <c r="BD65" s="14"/>
       <c r="BE65" s="14"/>
-      <c r="BF65" s="14"/>
-      <c r="BG65" s="14"/>
+      <c r="BF65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG65" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BH65" s="14"/>
       <c r="BI65" s="14"/>
       <c r="BJ65" s="14"/>
       <c r="BK65" s="14"/>
-      <c r="BL65" s="14"/>
-      <c r="BM65" s="14"/>
+      <c r="BL65" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="BM65" s="14" t="s">
+        <v>500</v>
+      </c>
       <c r="BN65" s="14"/>
       <c r="BO65" s="14"/>
       <c r="BP65" s="14"/>
@@ -8927,17 +10422,49 @@
       <c r="CB65" s="14"/>
       <c r="CC65" s="14"/>
       <c r="CD65" s="14"/>
-      <c r="CE65" s="14"/>
-      <c r="CF65" s="14"/>
-      <c r="CG65" s="13"/>
+      <c r="CE65" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="CF65" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="CG65" s="14"/>
+      <c r="CH65" s="14"/>
+      <c r="CI65" s="14"/>
+      <c r="CJ65" s="14"/>
+      <c r="CK65" s="14"/>
+      <c r="CL65" s="14"/>
+      <c r="CM65" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="CN65" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="CO65" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="CP65" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="CQ65" s="13"/>
     </row>
-    <row r="66" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A66" s="14"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
+    <row r="66" spans="1:95">
+      <c r="A66" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
+      <c r="E66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
@@ -8950,10 +10477,14 @@
       <c r="P66" s="14"/>
       <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
-      <c r="S66" s="14"/>
-      <c r="T66" s="14"/>
-      <c r="U66" s="14"/>
-      <c r="V66" s="14"/>
+      <c r="S66" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
       <c r="W66" s="14"/>
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
@@ -8976,9 +10507,13 @@
       <c r="AP66" s="14"/>
       <c r="AQ66" s="14"/>
       <c r="AR66" s="14"/>
-      <c r="AS66" s="14"/>
-      <c r="AT66" s="14"/>
-      <c r="AU66" s="14"/>
+      <c r="AS66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT66" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AU66" s="2"/>
       <c r="AV66" s="14"/>
       <c r="AW66" s="14"/>
       <c r="AX66" s="14"/>
@@ -8986,8 +10521,12 @@
       <c r="AZ66" s="14"/>
       <c r="BA66" s="14"/>
       <c r="BB66" s="14"/>
-      <c r="BC66" s="14"/>
-      <c r="BD66" s="14"/>
+      <c r="BC66" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD66" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="BE66" s="14"/>
       <c r="BF66" s="14"/>
       <c r="BG66" s="14"/>
@@ -8997,10 +10536,16 @@
       <c r="BK66" s="14"/>
       <c r="BL66" s="14"/>
       <c r="BM66" s="14"/>
-      <c r="BN66" s="14"/>
-      <c r="BO66" s="14"/>
+      <c r="BN66" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="BO66" s="14" t="s">
+        <v>507</v>
+      </c>
       <c r="BP66" s="14"/>
-      <c r="BQ66" s="14"/>
+      <c r="BQ66" s="14">
+        <v>1</v>
+      </c>
       <c r="BR66" s="14"/>
       <c r="BS66" s="14"/>
       <c r="BT66" s="14"/>
@@ -9014,17 +10559,47 @@
       <c r="CB66" s="14"/>
       <c r="CC66" s="14"/>
       <c r="CD66" s="14"/>
-      <c r="CE66" s="14"/>
+      <c r="CE66" s="14" t="s">
+        <v>514</v>
+      </c>
       <c r="CF66" s="14"/>
-      <c r="CG66" s="13"/>
+      <c r="CG66" s="14"/>
+      <c r="CH66" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="CI66" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="CJ66" s="14"/>
+      <c r="CK66" s="14"/>
+      <c r="CL66" s="14"/>
+      <c r="CM66" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="CN66" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="CO66" s="14"/>
+      <c r="CP66" s="14"/>
+      <c r="CQ66" s="13"/>
     </row>
-    <row r="67" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
+    <row r="67" spans="1:95">
+      <c r="A67" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
+      <c r="E67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
@@ -9084,8 +10659,12 @@
       <c r="BK67" s="14"/>
       <c r="BL67" s="14"/>
       <c r="BM67" s="14"/>
-      <c r="BN67" s="14"/>
-      <c r="BO67" s="14"/>
+      <c r="BN67" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="BO67" s="14" t="s">
+        <v>518</v>
+      </c>
       <c r="BP67" s="14"/>
       <c r="BQ67" s="14"/>
       <c r="BR67" s="14"/>
@@ -9103,15 +10682,43 @@
       <c r="CD67" s="14"/>
       <c r="CE67" s="14"/>
       <c r="CF67" s="14"/>
-      <c r="CG67" s="13"/>
+      <c r="CG67" s="14"/>
+      <c r="CH67" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="CI67" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ67" s="14"/>
+      <c r="CK67" s="14"/>
+      <c r="CL67" s="14"/>
+      <c r="CM67" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="CN67" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="CO67" s="14"/>
+      <c r="CP67" s="14"/>
+      <c r="CQ67" s="13"/>
     </row>
-    <row r="68" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
+    <row r="68" spans="1:95">
+      <c r="A68" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
+      <c r="E68" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
@@ -9158,8 +10765,12 @@
       <c r="AX68" s="14"/>
       <c r="AY68" s="14"/>
       <c r="AZ68" s="14"/>
-      <c r="BA68" s="14"/>
-      <c r="BB68" s="14"/>
+      <c r="BA68" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB68" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="BC68" s="14"/>
       <c r="BD68" s="14"/>
       <c r="BE68" s="14"/>
@@ -9190,15 +10801,47 @@
       <c r="CD68" s="14"/>
       <c r="CE68" s="14"/>
       <c r="CF68" s="14"/>
-      <c r="CG68" s="13"/>
+      <c r="CG68" s="14"/>
+      <c r="CH68" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI68" s="14"/>
+      <c r="CJ68" s="14"/>
+      <c r="CK68" s="14"/>
+      <c r="CL68" s="14"/>
+      <c r="CM68" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="CN68" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="CO68" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="CP68" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="CQ68" s="14" t="s">
+        <v>232</v>
+      </c>
     </row>
-    <row r="69" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A69" s="14"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
+    <row r="69" spans="1:95">
+      <c r="A69" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
+      <c r="E69" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>527</v>
+      </c>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
@@ -9277,15 +10920,45 @@
       <c r="CD69" s="14"/>
       <c r="CE69" s="14"/>
       <c r="CF69" s="14"/>
-      <c r="CG69" s="13"/>
+      <c r="CG69" s="14"/>
+      <c r="CH69" s="14"/>
+      <c r="CI69" s="14"/>
+      <c r="CJ69" s="14"/>
+      <c r="CK69" s="14"/>
+      <c r="CL69" s="14"/>
+      <c r="CM69" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="CN69" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="CO69" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="CP69" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="CQ69" s="14" t="s">
+        <v>365</v>
+      </c>
     </row>
-    <row r="70" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
+    <row r="70" spans="1:95">
+      <c r="A70" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
+      <c r="E70" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>538</v>
+      </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
@@ -9316,8 +10989,12 @@
       <c r="AH70" s="14"/>
       <c r="AI70" s="14"/>
       <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
+      <c r="AK70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL70" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="AM70" s="14"/>
       <c r="AN70" s="14"/>
       <c r="AO70" s="14"/>
@@ -9332,13 +11009,21 @@
       <c r="AX70" s="14"/>
       <c r="AY70" s="14"/>
       <c r="AZ70" s="14"/>
-      <c r="BA70" s="14"/>
-      <c r="BB70" s="14"/>
+      <c r="BA70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB70" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="BC70" s="14"/>
       <c r="BD70" s="14"/>
       <c r="BE70" s="14"/>
-      <c r="BF70" s="14"/>
-      <c r="BG70" s="14"/>
+      <c r="BF70" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG70" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="BH70" s="14"/>
       <c r="BI70" s="14"/>
       <c r="BJ70" s="14"/>
@@ -9364,15 +11049,47 @@
       <c r="CD70" s="14"/>
       <c r="CE70" s="14"/>
       <c r="CF70" s="14"/>
-      <c r="CG70" s="13"/>
+      <c r="CG70" s="14"/>
+      <c r="CH70" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="CI70" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="CJ70" s="14"/>
+      <c r="CK70" s="14"/>
+      <c r="CL70" s="14"/>
+      <c r="CM70" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="CN70" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="CO70" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="CP70" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="CQ70" s="13"/>
     </row>
-    <row r="71" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
+    <row r="71" spans="1:95">
+      <c r="A71" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
+      <c r="E71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
@@ -9391,8 +11108,12 @@
       <c r="V71" s="14"/>
       <c r="W71" s="14"/>
       <c r="X71" s="14"/>
-      <c r="Y71" s="14"/>
-      <c r="Z71" s="14"/>
+      <c r="Y71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AA71" s="14"/>
       <c r="AB71" s="14"/>
       <c r="AC71" s="14"/>
@@ -9419,13 +11140,21 @@
       <c r="AX71" s="14"/>
       <c r="AY71" s="14"/>
       <c r="AZ71" s="14"/>
-      <c r="BA71" s="14"/>
-      <c r="BB71" s="14"/>
+      <c r="BA71" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB71" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="BC71" s="14"/>
       <c r="BD71" s="14"/>
       <c r="BE71" s="14"/>
-      <c r="BF71" s="14"/>
-      <c r="BG71" s="14"/>
+      <c r="BF71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG71" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="BH71" s="14"/>
       <c r="BI71" s="14"/>
       <c r="BJ71" s="14"/>
@@ -9451,15 +11180,43 @@
       <c r="CD71" s="14"/>
       <c r="CE71" s="14"/>
       <c r="CF71" s="14"/>
-      <c r="CG71" s="13"/>
+      <c r="CG71" s="14"/>
+      <c r="CH71" s="14"/>
+      <c r="CI71" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="CJ71" s="14"/>
+      <c r="CK71" s="14"/>
+      <c r="CL71" s="14"/>
+      <c r="CM71" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="CN71" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="CO71" s="14"/>
+      <c r="CP71" s="14"/>
+      <c r="CQ71" s="13"/>
     </row>
-    <row r="72" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
+    <row r="72" spans="1:95">
+      <c r="A72" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
@@ -9474,12 +11231,20 @@
       <c r="R72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
+      <c r="U72" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="V72" s="14" t="s">
+        <v>549</v>
+      </c>
       <c r="W72" s="14"/>
       <c r="X72" s="14"/>
-      <c r="Y72" s="14"/>
-      <c r="Z72" s="14"/>
+      <c r="Y72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z72" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="AA72" s="14"/>
       <c r="AB72" s="14"/>
       <c r="AC72" s="14"/>
@@ -9511,8 +11276,12 @@
       <c r="BC72" s="14"/>
       <c r="BD72" s="14"/>
       <c r="BE72" s="14"/>
-      <c r="BF72" s="14"/>
-      <c r="BG72" s="14"/>
+      <c r="BF72" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG72" s="14" t="s">
+        <v>302</v>
+      </c>
       <c r="BH72" s="14"/>
       <c r="BI72" s="14"/>
       <c r="BJ72" s="14"/>
@@ -9538,15 +11307,43 @@
       <c r="CD72" s="14"/>
       <c r="CE72" s="14"/>
       <c r="CF72" s="14"/>
-      <c r="CG72" s="13"/>
+      <c r="CG72" s="14"/>
+      <c r="CH72" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI72" s="14"/>
+      <c r="CJ72" s="14"/>
+      <c r="CK72" s="14"/>
+      <c r="CL72" s="14"/>
+      <c r="CM72" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="CN72" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="CO72" s="14"/>
+      <c r="CP72" s="14"/>
+      <c r="CQ72" s="14" t="s">
+        <v>263</v>
+      </c>
     </row>
-    <row r="73" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
+    <row r="73" spans="1:95">
+      <c r="A73" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
+      <c r="E73" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>554</v>
+      </c>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
@@ -9606,8 +11403,12 @@
       <c r="BK73" s="14"/>
       <c r="BL73" s="14"/>
       <c r="BM73" s="14"/>
-      <c r="BN73" s="14"/>
-      <c r="BO73" s="14"/>
+      <c r="BN73" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="BO73" s="14" t="s">
+        <v>556</v>
+      </c>
       <c r="BP73" s="14"/>
       <c r="BQ73" s="14"/>
       <c r="BR73" s="14"/>
@@ -9624,16 +11425,48 @@
       <c r="CC73" s="14"/>
       <c r="CD73" s="14"/>
       <c r="CE73" s="14"/>
-      <c r="CF73" s="14"/>
-      <c r="CG73" s="13"/>
+      <c r="CF73" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="CG73" s="14"/>
+      <c r="CH73" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="CI73" s="14"/>
+      <c r="CJ73" s="14"/>
+      <c r="CK73" s="14"/>
+      <c r="CL73" s="14"/>
+      <c r="CM73" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="CN73" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="CO73" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="CP73" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="CQ73" s="13"/>
     </row>
-    <row r="74" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
+    <row r="74" spans="1:95">
+      <c r="A74" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
+      <c r="E74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -9685,16 +11518,24 @@
       <c r="BC74" s="14"/>
       <c r="BD74" s="14"/>
       <c r="BE74" s="14"/>
-      <c r="BF74" s="14"/>
-      <c r="BG74" s="14"/>
+      <c r="BF74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG74" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="BH74" s="14"/>
       <c r="BI74" s="14"/>
       <c r="BJ74" s="14"/>
       <c r="BK74" s="14"/>
       <c r="BL74" s="14"/>
       <c r="BM74" s="14"/>
-      <c r="BN74" s="14"/>
-      <c r="BO74" s="14"/>
+      <c r="BN74" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="BO74" s="14" t="s">
+        <v>562</v>
+      </c>
       <c r="BP74" s="14"/>
       <c r="BQ74" s="14"/>
       <c r="BR74" s="14"/>
@@ -9712,15 +11553,45 @@
       <c r="CD74" s="14"/>
       <c r="CE74" s="14"/>
       <c r="CF74" s="14"/>
-      <c r="CG74" s="13"/>
+      <c r="CG74" s="14"/>
+      <c r="CH74" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="CI74" s="14"/>
+      <c r="CJ74" s="14"/>
+      <c r="CK74" s="14"/>
+      <c r="CL74" s="14"/>
+      <c r="CM74" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="CN74" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="CO74" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="CP74" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="CQ74" s="13"/>
     </row>
-    <row r="75" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A75" s="14"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
+    <row r="75" spans="1:95">
+      <c r="A75" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
+      <c r="E75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>568</v>
+      </c>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
@@ -9783,7 +11654,9 @@
       <c r="BN75" s="14"/>
       <c r="BO75" s="14"/>
       <c r="BP75" s="14"/>
-      <c r="BQ75" s="14"/>
+      <c r="BQ75" s="14">
+        <v>1</v>
+      </c>
       <c r="BR75" s="14"/>
       <c r="BS75" s="14"/>
       <c r="BT75" s="14"/>
@@ -9797,17 +11670,45 @@
       <c r="CB75" s="14"/>
       <c r="CC75" s="14"/>
       <c r="CD75" s="14"/>
-      <c r="CE75" s="14"/>
+      <c r="CE75" s="14" t="s">
+        <v>189</v>
+      </c>
       <c r="CF75" s="14"/>
-      <c r="CG75" s="13"/>
+      <c r="CG75" s="14"/>
+      <c r="CH75" s="14"/>
+      <c r="CI75" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="CJ75" s="14"/>
+      <c r="CK75" s="14"/>
+      <c r="CL75" s="14"/>
+      <c r="CM75" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="CN75" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="CO75" s="14"/>
+      <c r="CP75" s="14"/>
+      <c r="CQ75" s="13"/>
     </row>
-    <row r="76" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
+    <row r="76" spans="1:95">
+      <c r="A76" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
+      <c r="E76" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>480</v>
+      </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
@@ -9820,8 +11721,12 @@
       <c r="P76" s="14"/>
       <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
-      <c r="S76" s="14"/>
-      <c r="T76" s="14"/>
+      <c r="S76" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="T76" s="14" t="s">
+        <v>577</v>
+      </c>
       <c r="U76" s="14"/>
       <c r="V76" s="14"/>
       <c r="W76" s="14"/>
@@ -9851,8 +11756,12 @@
       <c r="AU76" s="14"/>
       <c r="AV76" s="14"/>
       <c r="AW76" s="14"/>
-      <c r="AX76" s="14"/>
-      <c r="AY76" s="14"/>
+      <c r="AX76" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AY76" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="AZ76" s="14"/>
       <c r="BA76" s="14"/>
       <c r="BB76" s="14"/>
@@ -9885,21 +11794,53 @@
       <c r="CC76" s="14"/>
       <c r="CD76" s="14"/>
       <c r="CE76" s="14"/>
-      <c r="CF76" s="14"/>
-      <c r="CG76" s="13"/>
+      <c r="CF76" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="CG76" s="14"/>
+      <c r="CH76" s="14"/>
+      <c r="CI76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="CJ76" s="14"/>
+      <c r="CK76" s="14"/>
+      <c r="CL76" s="14"/>
+      <c r="CM76" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="CN76" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="CO76" s="14"/>
+      <c r="CP76" s="14"/>
+      <c r="CQ76" s="13"/>
     </row>
-    <row r="77" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
+    <row r="77" spans="1:95">
+      <c r="A77" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
+      <c r="E77" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
+      <c r="J77" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
       <c r="N77" s="14"/>
@@ -9924,13 +11865,17 @@
       <c r="AG77" s="14"/>
       <c r="AH77" s="14"/>
       <c r="AI77" s="14"/>
-      <c r="AJ77" s="14"/>
+      <c r="AJ77" s="14">
+        <v>4</v>
+      </c>
       <c r="AK77" s="14"/>
       <c r="AL77" s="14"/>
       <c r="AM77" s="14"/>
       <c r="AN77" s="14"/>
       <c r="AO77" s="14"/>
-      <c r="AP77" s="14"/>
+      <c r="AP77" s="14">
+        <v>6</v>
+      </c>
       <c r="AQ77" s="14"/>
       <c r="AR77" s="14"/>
       <c r="AS77" s="14"/>
@@ -9945,7 +11890,9 @@
       <c r="BB77" s="14"/>
       <c r="BC77" s="14"/>
       <c r="BD77" s="14"/>
-      <c r="BE77" s="14"/>
+      <c r="BE77" s="14">
+        <v>3</v>
+      </c>
       <c r="BF77" s="14"/>
       <c r="BG77" s="14"/>
       <c r="BH77" s="14"/>
@@ -9972,13 +11919,41 @@
       <c r="CC77" s="14"/>
       <c r="CD77" s="14"/>
       <c r="CE77" s="14"/>
-      <c r="CF77" s="14"/>
-      <c r="CG77" s="13"/>
+      <c r="CF77" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="CG77" s="14"/>
+      <c r="CH77" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="CI77" s="14"/>
+      <c r="CJ77" s="14"/>
+      <c r="CK77" s="14"/>
+      <c r="CL77" s="14"/>
+      <c r="CM77" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="CN77" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="CO77" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="CP77" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="CQ77" s="13"/>
     </row>
-    <row r="78" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A78" s="14"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
+    <row r="78" spans="1:95">
+      <c r="A78" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
@@ -9993,7 +11968,9 @@
       <c r="O78" s="14"/>
       <c r="P78" s="14"/>
       <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
+      <c r="R78" s="14">
+        <v>10</v>
+      </c>
       <c r="S78" s="14"/>
       <c r="T78" s="14"/>
       <c r="U78" s="14"/>
@@ -10011,7 +11988,9 @@
       <c r="AG78" s="14"/>
       <c r="AH78" s="14"/>
       <c r="AI78" s="14"/>
-      <c r="AJ78" s="14"/>
+      <c r="AJ78" s="14">
+        <v>1</v>
+      </c>
       <c r="AK78" s="14"/>
       <c r="AL78" s="14"/>
       <c r="AM78" s="14"/>
@@ -10059,16 +12038,48 @@
       <c r="CC78" s="14"/>
       <c r="CD78" s="14"/>
       <c r="CE78" s="14"/>
-      <c r="CF78" s="14"/>
-      <c r="CG78" s="13"/>
+      <c r="CF78" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="CG78" s="14"/>
+      <c r="CH78" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="CI78" s="14"/>
+      <c r="CJ78" s="14"/>
+      <c r="CK78" s="14"/>
+      <c r="CL78" s="14"/>
+      <c r="CM78" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="CN78" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="CO78" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="CP78" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="CQ78" s="13"/>
     </row>
-    <row r="79" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
+    <row r="79" spans="1:95">
+      <c r="A79" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
+      <c r="E79" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>597</v>
+      </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
@@ -10135,8 +12146,12 @@
       <c r="BR79" s="14"/>
       <c r="BS79" s="14"/>
       <c r="BT79" s="14"/>
-      <c r="BU79" s="14"/>
-      <c r="BV79" s="14"/>
+      <c r="BU79" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="BV79" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="BW79" s="14"/>
       <c r="BX79" s="14"/>
       <c r="BY79" s="14"/>
@@ -10145,17 +12160,45 @@
       <c r="CB79" s="14"/>
       <c r="CC79" s="14"/>
       <c r="CD79" s="14"/>
-      <c r="CE79" s="14"/>
+      <c r="CE79" s="14" t="s">
+        <v>455</v>
+      </c>
       <c r="CF79" s="14"/>
-      <c r="CG79" s="13"/>
+      <c r="CG79" s="14"/>
+      <c r="CH79" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="CI79" s="14"/>
+      <c r="CJ79" s="14"/>
+      <c r="CK79" s="14"/>
+      <c r="CL79" s="14"/>
+      <c r="CM79" s="14" t="s">
+        <v>588</v>
+      </c>
+      <c r="CN79" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="CO79" s="14"/>
+      <c r="CP79" s="14"/>
+      <c r="CQ79" s="13"/>
     </row>
-    <row r="80" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
+    <row r="80" spans="1:95">
+      <c r="A80" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>396</v>
+      </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
+      <c r="E80" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>346</v>
+      </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
@@ -10201,7 +12244,9 @@
       <c r="AW80" s="14"/>
       <c r="AX80" s="14"/>
       <c r="AY80" s="14"/>
-      <c r="AZ80" s="14"/>
+      <c r="AZ80" s="14">
+        <v>10</v>
+      </c>
       <c r="BA80" s="14"/>
       <c r="BB80" s="14"/>
       <c r="BC80" s="14"/>
@@ -10232,17 +12277,53 @@
       <c r="CB80" s="14"/>
       <c r="CC80" s="14"/>
       <c r="CD80" s="14"/>
-      <c r="CE80" s="14"/>
-      <c r="CF80" s="14"/>
-      <c r="CG80" s="13"/>
+      <c r="CE80" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="CF80" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="CG80" s="14"/>
+      <c r="CH80" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="CI80" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="CJ80" s="14"/>
+      <c r="CK80" s="14"/>
+      <c r="CL80" s="14"/>
+      <c r="CM80" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="CN80" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="CO80" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="CP80" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="CQ80" s="13"/>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A81" s="14"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
+    <row r="81" spans="1:95">
+      <c r="A81" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
+      <c r="E81" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>490</v>
+      </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
@@ -10289,8 +12370,12 @@
       <c r="AX81" s="14"/>
       <c r="AY81" s="14"/>
       <c r="AZ81" s="14"/>
-      <c r="BA81" s="14"/>
-      <c r="BB81" s="14"/>
+      <c r="BA81" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BB81" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="BC81" s="14"/>
       <c r="BD81" s="14"/>
       <c r="BE81" s="14"/>
@@ -10319,17 +12404,45 @@
       <c r="CB81" s="14"/>
       <c r="CC81" s="14"/>
       <c r="CD81" s="14"/>
-      <c r="CE81" s="14"/>
+      <c r="CE81" s="14" t="s">
+        <v>514</v>
+      </c>
       <c r="CF81" s="14"/>
-      <c r="CG81" s="13"/>
+      <c r="CG81" s="14"/>
+      <c r="CH81" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="CI81" s="14"/>
+      <c r="CJ81" s="14"/>
+      <c r="CK81" s="14"/>
+      <c r="CL81" s="14"/>
+      <c r="CM81" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="CN81" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="CO81" s="14"/>
+      <c r="CP81" s="14"/>
+      <c r="CQ81" s="13"/>
     </row>
-    <row r="82" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A82" s="14"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
+    <row r="82" spans="1:95">
+      <c r="A82" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
+      <c r="E82" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>611</v>
+      </c>
       <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
@@ -10344,8 +12457,12 @@
       <c r="R82" s="14"/>
       <c r="S82" s="14"/>
       <c r="T82" s="14"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="14"/>
+      <c r="U82" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="V82" s="14" t="s">
+        <v>615</v>
+      </c>
       <c r="W82" s="14"/>
       <c r="X82" s="14"/>
       <c r="Y82" s="14"/>
@@ -10360,8 +12477,12 @@
       <c r="AH82" s="14"/>
       <c r="AI82" s="14"/>
       <c r="AJ82" s="14"/>
-      <c r="AK82" s="14"/>
-      <c r="AL82" s="14"/>
+      <c r="AK82" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL82" s="14" t="s">
+        <v>613</v>
+      </c>
       <c r="AM82" s="14"/>
       <c r="AN82" s="14"/>
       <c r="AO82" s="14"/>
@@ -10406,17 +12527,51 @@
       <c r="CB82" s="14"/>
       <c r="CC82" s="14"/>
       <c r="CD82" s="14"/>
-      <c r="CE82" s="14"/>
-      <c r="CF82" s="14"/>
-      <c r="CG82" s="13"/>
+      <c r="CE82" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="CF82" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="CG82" s="14"/>
+      <c r="CH82" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="CI82" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="CJ82" s="14"/>
+      <c r="CK82" s="14"/>
+      <c r="CL82" s="14"/>
+      <c r="CM82" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="CN82" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="CO82" s="14"/>
+      <c r="CP82" s="14"/>
+      <c r="CQ82" s="13"/>
     </row>
-    <row r="83" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
+    <row r="83" spans="1:95">
+      <c r="A83" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>622</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>434</v>
+      </c>
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
@@ -10429,8 +12584,12 @@
       <c r="P83" s="14"/>
       <c r="Q83" s="14"/>
       <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="14"/>
+      <c r="S83" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T83" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="U83" s="14"/>
       <c r="V83" s="14"/>
       <c r="W83" s="14"/>
@@ -10476,8 +12635,12 @@
       <c r="BK83" s="14"/>
       <c r="BL83" s="14"/>
       <c r="BM83" s="14"/>
-      <c r="BN83" s="14"/>
-      <c r="BO83" s="14"/>
+      <c r="BN83" s="14" t="s">
+        <v>623</v>
+      </c>
+      <c r="BO83" s="14" t="s">
+        <v>624</v>
+      </c>
       <c r="BP83" s="14"/>
       <c r="BQ83" s="14"/>
       <c r="BR83" s="14"/>
@@ -10495,15 +12658,45 @@
       <c r="CD83" s="14"/>
       <c r="CE83" s="14"/>
       <c r="CF83" s="14"/>
-      <c r="CG83" s="13"/>
+      <c r="CG83" s="14"/>
+      <c r="CH83" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI83" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="CJ83" s="14"/>
+      <c r="CK83" s="14"/>
+      <c r="CL83" s="14"/>
+      <c r="CM83" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="CN83" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="CO83" s="14"/>
+      <c r="CP83" s="14"/>
+      <c r="CQ83" s="13"/>
     </row>
-    <row r="84" spans="1:85" x14ac:dyDescent="0.3">
-      <c r="A84" s="14"/>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
+    <row r="84" spans="1:95">
+      <c r="A84" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>629</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
@@ -10544,7 +12737,9 @@
       <c r="AR84" s="14"/>
       <c r="AS84" s="14"/>
       <c r="AT84" s="14"/>
-      <c r="AU84" s="14"/>
+      <c r="AU84" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="AV84" s="14"/>
       <c r="AW84" s="14"/>
       <c r="AX84" s="14"/>
@@ -10582,9 +12777,27 @@
       <c r="CD84" s="14"/>
       <c r="CE84" s="14"/>
       <c r="CF84" s="14"/>
-      <c r="CG84" s="13"/>
+      <c r="CG84" s="14"/>
+      <c r="CH84" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="CI84" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="CJ84" s="14"/>
+      <c r="CK84" s="14"/>
+      <c r="CL84" s="14"/>
+      <c r="CM84" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="CN84" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="CO84" s="14"/>
+      <c r="CP84" s="14"/>
+      <c r="CQ84" s="13"/>
     </row>
-    <row r="85" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:95">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
@@ -10669,9 +12882,19 @@
       <c r="CD85" s="14"/>
       <c r="CE85" s="14"/>
       <c r="CF85" s="14"/>
-      <c r="CG85" s="13"/>
+      <c r="CG85" s="14"/>
+      <c r="CH85" s="14"/>
+      <c r="CI85" s="14"/>
+      <c r="CJ85" s="14"/>
+      <c r="CK85" s="14"/>
+      <c r="CL85" s="14"/>
+      <c r="CM85" s="14"/>
+      <c r="CN85" s="14"/>
+      <c r="CO85" s="14"/>
+      <c r="CP85" s="14"/>
+      <c r="CQ85" s="13"/>
     </row>
-    <row r="86" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:95">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
@@ -10756,9 +12979,19 @@
       <c r="CD86" s="14"/>
       <c r="CE86" s="14"/>
       <c r="CF86" s="14"/>
-      <c r="CG86" s="13"/>
+      <c r="CG86" s="14"/>
+      <c r="CH86" s="14"/>
+      <c r="CI86" s="14"/>
+      <c r="CJ86" s="14"/>
+      <c r="CK86" s="14"/>
+      <c r="CL86" s="14"/>
+      <c r="CM86" s="14"/>
+      <c r="CN86" s="14"/>
+      <c r="CO86" s="14"/>
+      <c r="CP86" s="14"/>
+      <c r="CQ86" s="13"/>
     </row>
-    <row r="87" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:95">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
@@ -10843,9 +13076,19 @@
       <c r="CD87" s="14"/>
       <c r="CE87" s="14"/>
       <c r="CF87" s="14"/>
-      <c r="CG87" s="13"/>
+      <c r="CG87" s="14"/>
+      <c r="CH87" s="14"/>
+      <c r="CI87" s="14"/>
+      <c r="CJ87" s="14"/>
+      <c r="CK87" s="14"/>
+      <c r="CL87" s="14"/>
+      <c r="CM87" s="14"/>
+      <c r="CN87" s="14"/>
+      <c r="CO87" s="14"/>
+      <c r="CP87" s="14"/>
+      <c r="CQ87" s="13"/>
     </row>
-    <row r="88" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:95">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
@@ -10930,9 +13173,19 @@
       <c r="CD88" s="14"/>
       <c r="CE88" s="14"/>
       <c r="CF88" s="14"/>
-      <c r="CG88" s="13"/>
+      <c r="CG88" s="14"/>
+      <c r="CH88" s="14"/>
+      <c r="CI88" s="14"/>
+      <c r="CJ88" s="14"/>
+      <c r="CK88" s="14"/>
+      <c r="CL88" s="14"/>
+      <c r="CM88" s="14"/>
+      <c r="CN88" s="14"/>
+      <c r="CO88" s="14"/>
+      <c r="CP88" s="14"/>
+      <c r="CQ88" s="13"/>
     </row>
-    <row r="89" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:95">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
@@ -11017,9 +13270,19 @@
       <c r="CD89" s="14"/>
       <c r="CE89" s="14"/>
       <c r="CF89" s="14"/>
-      <c r="CG89" s="13"/>
+      <c r="CG89" s="14"/>
+      <c r="CH89" s="14"/>
+      <c r="CI89" s="14"/>
+      <c r="CJ89" s="14"/>
+      <c r="CK89" s="14"/>
+      <c r="CL89" s="14"/>
+      <c r="CM89" s="14"/>
+      <c r="CN89" s="14"/>
+      <c r="CO89" s="14"/>
+      <c r="CP89" s="14"/>
+      <c r="CQ89" s="13"/>
     </row>
-    <row r="90" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:95">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
@@ -11104,9 +13367,19 @@
       <c r="CD90" s="14"/>
       <c r="CE90" s="14"/>
       <c r="CF90" s="14"/>
-      <c r="CG90" s="13"/>
+      <c r="CG90" s="14"/>
+      <c r="CH90" s="14"/>
+      <c r="CI90" s="14"/>
+      <c r="CJ90" s="14"/>
+      <c r="CK90" s="14"/>
+      <c r="CL90" s="14"/>
+      <c r="CM90" s="14"/>
+      <c r="CN90" s="14"/>
+      <c r="CO90" s="14"/>
+      <c r="CP90" s="14"/>
+      <c r="CQ90" s="13"/>
     </row>
-    <row r="91" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:95">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
@@ -11191,9 +13464,19 @@
       <c r="CD91" s="14"/>
       <c r="CE91" s="14"/>
       <c r="CF91" s="14"/>
-      <c r="CG91" s="13"/>
+      <c r="CG91" s="14"/>
+      <c r="CH91" s="14"/>
+      <c r="CI91" s="14"/>
+      <c r="CJ91" s="14"/>
+      <c r="CK91" s="14"/>
+      <c r="CL91" s="14"/>
+      <c r="CM91" s="14"/>
+      <c r="CN91" s="14"/>
+      <c r="CO91" s="14"/>
+      <c r="CP91" s="14"/>
+      <c r="CQ91" s="13"/>
     </row>
-    <row r="92" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:95">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -11278,9 +13561,19 @@
       <c r="CD92" s="14"/>
       <c r="CE92" s="14"/>
       <c r="CF92" s="14"/>
-      <c r="CG92" s="13"/>
+      <c r="CG92" s="14"/>
+      <c r="CH92" s="14"/>
+      <c r="CI92" s="14"/>
+      <c r="CJ92" s="14"/>
+      <c r="CK92" s="14"/>
+      <c r="CL92" s="14"/>
+      <c r="CM92" s="14"/>
+      <c r="CN92" s="14"/>
+      <c r="CO92" s="14"/>
+      <c r="CP92" s="14"/>
+      <c r="CQ92" s="13"/>
     </row>
-    <row r="93" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:95">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -11365,9 +13658,19 @@
       <c r="CD93" s="14"/>
       <c r="CE93" s="14"/>
       <c r="CF93" s="14"/>
-      <c r="CG93" s="13"/>
+      <c r="CG93" s="14"/>
+      <c r="CH93" s="14"/>
+      <c r="CI93" s="14"/>
+      <c r="CJ93" s="14"/>
+      <c r="CK93" s="14"/>
+      <c r="CL93" s="14"/>
+      <c r="CM93" s="14"/>
+      <c r="CN93" s="14"/>
+      <c r="CO93" s="14"/>
+      <c r="CP93" s="14"/>
+      <c r="CQ93" s="13"/>
     </row>
-    <row r="94" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:95">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
@@ -11452,9 +13755,19 @@
       <c r="CD94" s="14"/>
       <c r="CE94" s="14"/>
       <c r="CF94" s="14"/>
-      <c r="CG94" s="13"/>
+      <c r="CG94" s="14"/>
+      <c r="CH94" s="14"/>
+      <c r="CI94" s="14"/>
+      <c r="CJ94" s="14"/>
+      <c r="CK94" s="14"/>
+      <c r="CL94" s="14"/>
+      <c r="CM94" s="14"/>
+      <c r="CN94" s="14"/>
+      <c r="CO94" s="14"/>
+      <c r="CP94" s="14"/>
+      <c r="CQ94" s="13"/>
     </row>
-    <row r="95" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:95">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -11539,9 +13852,19 @@
       <c r="CD95" s="14"/>
       <c r="CE95" s="14"/>
       <c r="CF95" s="14"/>
-      <c r="CG95" s="13"/>
+      <c r="CG95" s="14"/>
+      <c r="CH95" s="14"/>
+      <c r="CI95" s="14"/>
+      <c r="CJ95" s="14"/>
+      <c r="CK95" s="14"/>
+      <c r="CL95" s="14"/>
+      <c r="CM95" s="14"/>
+      <c r="CN95" s="14"/>
+      <c r="CO95" s="14"/>
+      <c r="CP95" s="14"/>
+      <c r="CQ95" s="13"/>
     </row>
-    <row r="96" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:95">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
@@ -11626,9 +13949,19 @@
       <c r="CD96" s="14"/>
       <c r="CE96" s="14"/>
       <c r="CF96" s="14"/>
-      <c r="CG96" s="13"/>
+      <c r="CG96" s="14"/>
+      <c r="CH96" s="14"/>
+      <c r="CI96" s="14"/>
+      <c r="CJ96" s="14"/>
+      <c r="CK96" s="14"/>
+      <c r="CL96" s="14"/>
+      <c r="CM96" s="14"/>
+      <c r="CN96" s="14"/>
+      <c r="CO96" s="14"/>
+      <c r="CP96" s="14"/>
+      <c r="CQ96" s="13"/>
     </row>
-    <row r="97" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:95">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -11713,9 +14046,19 @@
       <c r="CD97" s="14"/>
       <c r="CE97" s="14"/>
       <c r="CF97" s="14"/>
-      <c r="CG97" s="13"/>
+      <c r="CG97" s="14"/>
+      <c r="CH97" s="14"/>
+      <c r="CI97" s="14"/>
+      <c r="CJ97" s="14"/>
+      <c r="CK97" s="14"/>
+      <c r="CL97" s="14"/>
+      <c r="CM97" s="14"/>
+      <c r="CN97" s="14"/>
+      <c r="CO97" s="14"/>
+      <c r="CP97" s="14"/>
+      <c r="CQ97" s="13"/>
     </row>
-    <row r="98" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:95">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
@@ -11800,9 +14143,19 @@
       <c r="CD98" s="14"/>
       <c r="CE98" s="14"/>
       <c r="CF98" s="14"/>
-      <c r="CG98" s="13"/>
+      <c r="CG98" s="14"/>
+      <c r="CH98" s="14"/>
+      <c r="CI98" s="14"/>
+      <c r="CJ98" s="14"/>
+      <c r="CK98" s="14"/>
+      <c r="CL98" s="14"/>
+      <c r="CM98" s="14"/>
+      <c r="CN98" s="14"/>
+      <c r="CO98" s="14"/>
+      <c r="CP98" s="14"/>
+      <c r="CQ98" s="13"/>
     </row>
-    <row r="99" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:95">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
@@ -11887,9 +14240,19 @@
       <c r="CD99" s="14"/>
       <c r="CE99" s="14"/>
       <c r="CF99" s="14"/>
-      <c r="CG99" s="13"/>
+      <c r="CG99" s="14"/>
+      <c r="CH99" s="14"/>
+      <c r="CI99" s="14"/>
+      <c r="CJ99" s="14"/>
+      <c r="CK99" s="14"/>
+      <c r="CL99" s="14"/>
+      <c r="CM99" s="14"/>
+      <c r="CN99" s="14"/>
+      <c r="CO99" s="14"/>
+      <c r="CP99" s="14"/>
+      <c r="CQ99" s="13"/>
     </row>
-    <row r="100" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:95">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -11974,9 +14337,19 @@
       <c r="CD100" s="14"/>
       <c r="CE100" s="14"/>
       <c r="CF100" s="14"/>
-      <c r="CG100" s="13"/>
+      <c r="CG100" s="14"/>
+      <c r="CH100" s="14"/>
+      <c r="CI100" s="14"/>
+      <c r="CJ100" s="14"/>
+      <c r="CK100" s="14"/>
+      <c r="CL100" s="14"/>
+      <c r="CM100" s="14"/>
+      <c r="CN100" s="14"/>
+      <c r="CO100" s="14"/>
+      <c r="CP100" s="14"/>
+      <c r="CQ100" s="13"/>
     </row>
-    <row r="101" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:95">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="14"/>
@@ -12061,9 +14434,19 @@
       <c r="CD101" s="14"/>
       <c r="CE101" s="14"/>
       <c r="CF101" s="14"/>
-      <c r="CG101" s="13"/>
+      <c r="CG101" s="14"/>
+      <c r="CH101" s="14"/>
+      <c r="CI101" s="14"/>
+      <c r="CJ101" s="14"/>
+      <c r="CK101" s="14"/>
+      <c r="CL101" s="14"/>
+      <c r="CM101" s="14"/>
+      <c r="CN101" s="14"/>
+      <c r="CO101" s="14"/>
+      <c r="CP101" s="14"/>
+      <c r="CQ101" s="13"/>
     </row>
-    <row r="102" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:95">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
@@ -12148,9 +14531,19 @@
       <c r="CD102" s="14"/>
       <c r="CE102" s="14"/>
       <c r="CF102" s="14"/>
-      <c r="CG102" s="13"/>
+      <c r="CG102" s="14"/>
+      <c r="CH102" s="14"/>
+      <c r="CI102" s="14"/>
+      <c r="CJ102" s="14"/>
+      <c r="CK102" s="14"/>
+      <c r="CL102" s="14"/>
+      <c r="CM102" s="14"/>
+      <c r="CN102" s="14"/>
+      <c r="CO102" s="14"/>
+      <c r="CP102" s="14"/>
+      <c r="CQ102" s="13"/>
     </row>
-    <row r="103" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:95">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
@@ -12235,9 +14628,19 @@
       <c r="CD103" s="14"/>
       <c r="CE103" s="14"/>
       <c r="CF103" s="14"/>
-      <c r="CG103" s="13"/>
+      <c r="CG103" s="14"/>
+      <c r="CH103" s="14"/>
+      <c r="CI103" s="14"/>
+      <c r="CJ103" s="14"/>
+      <c r="CK103" s="14"/>
+      <c r="CL103" s="14"/>
+      <c r="CM103" s="14"/>
+      <c r="CN103" s="14"/>
+      <c r="CO103" s="14"/>
+      <c r="CP103" s="14"/>
+      <c r="CQ103" s="13"/>
     </row>
-    <row r="104" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:95">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
@@ -12322,9 +14725,19 @@
       <c r="CD104" s="14"/>
       <c r="CE104" s="14"/>
       <c r="CF104" s="14"/>
-      <c r="CG104" s="13"/>
+      <c r="CG104" s="14"/>
+      <c r="CH104" s="14"/>
+      <c r="CI104" s="14"/>
+      <c r="CJ104" s="14"/>
+      <c r="CK104" s="14"/>
+      <c r="CL104" s="14"/>
+      <c r="CM104" s="14"/>
+      <c r="CN104" s="14"/>
+      <c r="CO104" s="14"/>
+      <c r="CP104" s="14"/>
+      <c r="CQ104" s="13"/>
     </row>
-    <row r="105" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:95">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -12409,9 +14822,19 @@
       <c r="CD105" s="14"/>
       <c r="CE105" s="14"/>
       <c r="CF105" s="14"/>
-      <c r="CG105" s="13"/>
+      <c r="CG105" s="14"/>
+      <c r="CH105" s="14"/>
+      <c r="CI105" s="14"/>
+      <c r="CJ105" s="14"/>
+      <c r="CK105" s="14"/>
+      <c r="CL105" s="14"/>
+      <c r="CM105" s="14"/>
+      <c r="CN105" s="14"/>
+      <c r="CO105" s="14"/>
+      <c r="CP105" s="14"/>
+      <c r="CQ105" s="13"/>
     </row>
-    <row r="106" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:95">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="14"/>
@@ -12496,9 +14919,19 @@
       <c r="CD106" s="14"/>
       <c r="CE106" s="14"/>
       <c r="CF106" s="14"/>
-      <c r="CG106" s="13"/>
+      <c r="CG106" s="14"/>
+      <c r="CH106" s="14"/>
+      <c r="CI106" s="14"/>
+      <c r="CJ106" s="14"/>
+      <c r="CK106" s="14"/>
+      <c r="CL106" s="14"/>
+      <c r="CM106" s="14"/>
+      <c r="CN106" s="14"/>
+      <c r="CO106" s="14"/>
+      <c r="CP106" s="14"/>
+      <c r="CQ106" s="13"/>
     </row>
-    <row r="107" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:95">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="14"/>
@@ -12583,9 +15016,19 @@
       <c r="CD107" s="14"/>
       <c r="CE107" s="14"/>
       <c r="CF107" s="14"/>
-      <c r="CG107" s="13"/>
+      <c r="CG107" s="14"/>
+      <c r="CH107" s="14"/>
+      <c r="CI107" s="14"/>
+      <c r="CJ107" s="14"/>
+      <c r="CK107" s="14"/>
+      <c r="CL107" s="14"/>
+      <c r="CM107" s="14"/>
+      <c r="CN107" s="14"/>
+      <c r="CO107" s="14"/>
+      <c r="CP107" s="14"/>
+      <c r="CQ107" s="13"/>
     </row>
-    <row r="108" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:95">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="14"/>
@@ -12670,9 +15113,19 @@
       <c r="CD108" s="14"/>
       <c r="CE108" s="14"/>
       <c r="CF108" s="14"/>
-      <c r="CG108" s="13"/>
+      <c r="CG108" s="14"/>
+      <c r="CH108" s="14"/>
+      <c r="CI108" s="14"/>
+      <c r="CJ108" s="14"/>
+      <c r="CK108" s="14"/>
+      <c r="CL108" s="14"/>
+      <c r="CM108" s="14"/>
+      <c r="CN108" s="14"/>
+      <c r="CO108" s="14"/>
+      <c r="CP108" s="14"/>
+      <c r="CQ108" s="13"/>
     </row>
-    <row r="109" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:95">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -12757,9 +15210,19 @@
       <c r="CD109" s="14"/>
       <c r="CE109" s="14"/>
       <c r="CF109" s="14"/>
-      <c r="CG109" s="13"/>
+      <c r="CG109" s="14"/>
+      <c r="CH109" s="14"/>
+      <c r="CI109" s="14"/>
+      <c r="CJ109" s="14"/>
+      <c r="CK109" s="14"/>
+      <c r="CL109" s="14"/>
+      <c r="CM109" s="14"/>
+      <c r="CN109" s="14"/>
+      <c r="CO109" s="14"/>
+      <c r="CP109" s="14"/>
+      <c r="CQ109" s="13"/>
     </row>
-    <row r="110" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:95">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="14"/>
@@ -12844,9 +15307,19 @@
       <c r="CD110" s="14"/>
       <c r="CE110" s="14"/>
       <c r="CF110" s="14"/>
-      <c r="CG110" s="13"/>
+      <c r="CG110" s="14"/>
+      <c r="CH110" s="14"/>
+      <c r="CI110" s="14"/>
+      <c r="CJ110" s="14"/>
+      <c r="CK110" s="14"/>
+      <c r="CL110" s="14"/>
+      <c r="CM110" s="14"/>
+      <c r="CN110" s="14"/>
+      <c r="CO110" s="14"/>
+      <c r="CP110" s="14"/>
+      <c r="CQ110" s="13"/>
     </row>
-    <row r="111" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:95">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="14"/>
@@ -12931,9 +15404,19 @@
       <c r="CD111" s="14"/>
       <c r="CE111" s="14"/>
       <c r="CF111" s="14"/>
-      <c r="CG111" s="13"/>
+      <c r="CG111" s="14"/>
+      <c r="CH111" s="14"/>
+      <c r="CI111" s="14"/>
+      <c r="CJ111" s="14"/>
+      <c r="CK111" s="14"/>
+      <c r="CL111" s="14"/>
+      <c r="CM111" s="14"/>
+      <c r="CN111" s="14"/>
+      <c r="CO111" s="14"/>
+      <c r="CP111" s="14"/>
+      <c r="CQ111" s="13"/>
     </row>
-    <row r="112" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:95">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="14"/>
@@ -13018,9 +15501,19 @@
       <c r="CD112" s="14"/>
       <c r="CE112" s="14"/>
       <c r="CF112" s="14"/>
-      <c r="CG112" s="13"/>
+      <c r="CG112" s="14"/>
+      <c r="CH112" s="14"/>
+      <c r="CI112" s="14"/>
+      <c r="CJ112" s="14"/>
+      <c r="CK112" s="14"/>
+      <c r="CL112" s="14"/>
+      <c r="CM112" s="14"/>
+      <c r="CN112" s="14"/>
+      <c r="CO112" s="14"/>
+      <c r="CP112" s="14"/>
+      <c r="CQ112" s="13"/>
     </row>
-    <row r="113" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:95">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="14"/>
@@ -13105,9 +15598,19 @@
       <c r="CD113" s="14"/>
       <c r="CE113" s="14"/>
       <c r="CF113" s="14"/>
-      <c r="CG113" s="13"/>
+      <c r="CG113" s="14"/>
+      <c r="CH113" s="14"/>
+      <c r="CI113" s="14"/>
+      <c r="CJ113" s="14"/>
+      <c r="CK113" s="14"/>
+      <c r="CL113" s="14"/>
+      <c r="CM113" s="14"/>
+      <c r="CN113" s="14"/>
+      <c r="CO113" s="14"/>
+      <c r="CP113" s="14"/>
+      <c r="CQ113" s="13"/>
     </row>
-    <row r="114" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:95">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="14"/>
@@ -13192,9 +15695,19 @@
       <c r="CD114" s="14"/>
       <c r="CE114" s="14"/>
       <c r="CF114" s="14"/>
-      <c r="CG114" s="13"/>
+      <c r="CG114" s="14"/>
+      <c r="CH114" s="14"/>
+      <c r="CI114" s="14"/>
+      <c r="CJ114" s="14"/>
+      <c r="CK114" s="14"/>
+      <c r="CL114" s="14"/>
+      <c r="CM114" s="14"/>
+      <c r="CN114" s="14"/>
+      <c r="CO114" s="14"/>
+      <c r="CP114" s="14"/>
+      <c r="CQ114" s="13"/>
     </row>
-    <row r="115" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:95">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -13279,9 +15792,19 @@
       <c r="CD115" s="14"/>
       <c r="CE115" s="14"/>
       <c r="CF115" s="14"/>
-      <c r="CG115" s="13"/>
+      <c r="CG115" s="14"/>
+      <c r="CH115" s="14"/>
+      <c r="CI115" s="14"/>
+      <c r="CJ115" s="14"/>
+      <c r="CK115" s="14"/>
+      <c r="CL115" s="14"/>
+      <c r="CM115" s="14"/>
+      <c r="CN115" s="14"/>
+      <c r="CO115" s="14"/>
+      <c r="CP115" s="14"/>
+      <c r="CQ115" s="13"/>
     </row>
-    <row r="116" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:95">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="14"/>
@@ -13366,9 +15889,19 @@
       <c r="CD116" s="14"/>
       <c r="CE116" s="14"/>
       <c r="CF116" s="14"/>
-      <c r="CG116" s="13"/>
+      <c r="CG116" s="14"/>
+      <c r="CH116" s="14"/>
+      <c r="CI116" s="14"/>
+      <c r="CJ116" s="14"/>
+      <c r="CK116" s="14"/>
+      <c r="CL116" s="14"/>
+      <c r="CM116" s="14"/>
+      <c r="CN116" s="14"/>
+      <c r="CO116" s="14"/>
+      <c r="CP116" s="14"/>
+      <c r="CQ116" s="13"/>
     </row>
-    <row r="117" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:95">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="14"/>
@@ -13453,9 +15986,19 @@
       <c r="CD117" s="14"/>
       <c r="CE117" s="14"/>
       <c r="CF117" s="14"/>
-      <c r="CG117" s="13"/>
+      <c r="CG117" s="14"/>
+      <c r="CH117" s="14"/>
+      <c r="CI117" s="14"/>
+      <c r="CJ117" s="14"/>
+      <c r="CK117" s="14"/>
+      <c r="CL117" s="14"/>
+      <c r="CM117" s="14"/>
+      <c r="CN117" s="14"/>
+      <c r="CO117" s="14"/>
+      <c r="CP117" s="14"/>
+      <c r="CQ117" s="13"/>
     </row>
-    <row r="118" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:95">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="14"/>
@@ -13540,9 +16083,19 @@
       <c r="CD118" s="14"/>
       <c r="CE118" s="14"/>
       <c r="CF118" s="14"/>
-      <c r="CG118" s="13"/>
+      <c r="CG118" s="14"/>
+      <c r="CH118" s="14"/>
+      <c r="CI118" s="14"/>
+      <c r="CJ118" s="14"/>
+      <c r="CK118" s="14"/>
+      <c r="CL118" s="14"/>
+      <c r="CM118" s="14"/>
+      <c r="CN118" s="14"/>
+      <c r="CO118" s="14"/>
+      <c r="CP118" s="14"/>
+      <c r="CQ118" s="13"/>
     </row>
-    <row r="119" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:95">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="14"/>
@@ -13627,9 +16180,19 @@
       <c r="CD119" s="14"/>
       <c r="CE119" s="14"/>
       <c r="CF119" s="14"/>
-      <c r="CG119" s="13"/>
+      <c r="CG119" s="14"/>
+      <c r="CH119" s="14"/>
+      <c r="CI119" s="14"/>
+      <c r="CJ119" s="14"/>
+      <c r="CK119" s="14"/>
+      <c r="CL119" s="14"/>
+      <c r="CM119" s="14"/>
+      <c r="CN119" s="14"/>
+      <c r="CO119" s="14"/>
+      <c r="CP119" s="14"/>
+      <c r="CQ119" s="13"/>
     </row>
-    <row r="120" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:95">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="14"/>
@@ -13714,9 +16277,19 @@
       <c r="CD120" s="14"/>
       <c r="CE120" s="14"/>
       <c r="CF120" s="14"/>
-      <c r="CG120" s="13"/>
+      <c r="CG120" s="14"/>
+      <c r="CH120" s="14"/>
+      <c r="CI120" s="14"/>
+      <c r="CJ120" s="14"/>
+      <c r="CK120" s="14"/>
+      <c r="CL120" s="14"/>
+      <c r="CM120" s="14"/>
+      <c r="CN120" s="14"/>
+      <c r="CO120" s="14"/>
+      <c r="CP120" s="14"/>
+      <c r="CQ120" s="13"/>
     </row>
-    <row r="121" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:95">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
@@ -13801,9 +16374,19 @@
       <c r="CD121" s="14"/>
       <c r="CE121" s="14"/>
       <c r="CF121" s="14"/>
-      <c r="CG121" s="13"/>
+      <c r="CG121" s="14"/>
+      <c r="CH121" s="14"/>
+      <c r="CI121" s="14"/>
+      <c r="CJ121" s="14"/>
+      <c r="CK121" s="14"/>
+      <c r="CL121" s="14"/>
+      <c r="CM121" s="14"/>
+      <c r="CN121" s="14"/>
+      <c r="CO121" s="14"/>
+      <c r="CP121" s="14"/>
+      <c r="CQ121" s="13"/>
     </row>
-    <row r="122" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:95">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -13888,9 +16471,19 @@
       <c r="CD122" s="14"/>
       <c r="CE122" s="14"/>
       <c r="CF122" s="14"/>
-      <c r="CG122" s="13"/>
+      <c r="CG122" s="14"/>
+      <c r="CH122" s="14"/>
+      <c r="CI122" s="14"/>
+      <c r="CJ122" s="14"/>
+      <c r="CK122" s="14"/>
+      <c r="CL122" s="14"/>
+      <c r="CM122" s="14"/>
+      <c r="CN122" s="14"/>
+      <c r="CO122" s="14"/>
+      <c r="CP122" s="14"/>
+      <c r="CQ122" s="13"/>
     </row>
-    <row r="123" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:95">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="14"/>
@@ -13975,9 +16568,19 @@
       <c r="CD123" s="14"/>
       <c r="CE123" s="14"/>
       <c r="CF123" s="14"/>
-      <c r="CG123" s="13"/>
+      <c r="CG123" s="14"/>
+      <c r="CH123" s="14"/>
+      <c r="CI123" s="14"/>
+      <c r="CJ123" s="14"/>
+      <c r="CK123" s="14"/>
+      <c r="CL123" s="14"/>
+      <c r="CM123" s="14"/>
+      <c r="CN123" s="14"/>
+      <c r="CO123" s="14"/>
+      <c r="CP123" s="14"/>
+      <c r="CQ123" s="13"/>
     </row>
-    <row r="124" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:95">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="14"/>
@@ -14062,9 +16665,19 @@
       <c r="CD124" s="14"/>
       <c r="CE124" s="14"/>
       <c r="CF124" s="14"/>
-      <c r="CG124" s="13"/>
+      <c r="CG124" s="14"/>
+      <c r="CH124" s="14"/>
+      <c r="CI124" s="14"/>
+      <c r="CJ124" s="14"/>
+      <c r="CK124" s="14"/>
+      <c r="CL124" s="14"/>
+      <c r="CM124" s="14"/>
+      <c r="CN124" s="14"/>
+      <c r="CO124" s="14"/>
+      <c r="CP124" s="14"/>
+      <c r="CQ124" s="13"/>
     </row>
-    <row r="125" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:95">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="14"/>
@@ -14149,9 +16762,19 @@
       <c r="CD125" s="14"/>
       <c r="CE125" s="14"/>
       <c r="CF125" s="14"/>
-      <c r="CG125" s="13"/>
+      <c r="CG125" s="14"/>
+      <c r="CH125" s="14"/>
+      <c r="CI125" s="14"/>
+      <c r="CJ125" s="14"/>
+      <c r="CK125" s="14"/>
+      <c r="CL125" s="14"/>
+      <c r="CM125" s="14"/>
+      <c r="CN125" s="14"/>
+      <c r="CO125" s="14"/>
+      <c r="CP125" s="14"/>
+      <c r="CQ125" s="13"/>
     </row>
-    <row r="126" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:95">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="14"/>
@@ -14236,9 +16859,19 @@
       <c r="CD126" s="14"/>
       <c r="CE126" s="14"/>
       <c r="CF126" s="14"/>
-      <c r="CG126" s="13"/>
+      <c r="CG126" s="14"/>
+      <c r="CH126" s="14"/>
+      <c r="CI126" s="14"/>
+      <c r="CJ126" s="14"/>
+      <c r="CK126" s="14"/>
+      <c r="CL126" s="14"/>
+      <c r="CM126" s="14"/>
+      <c r="CN126" s="14"/>
+      <c r="CO126" s="14"/>
+      <c r="CP126" s="14"/>
+      <c r="CQ126" s="13"/>
     </row>
-    <row r="127" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:95">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="14"/>
@@ -14323,9 +16956,19 @@
       <c r="CD127" s="14"/>
       <c r="CE127" s="14"/>
       <c r="CF127" s="14"/>
-      <c r="CG127" s="13"/>
+      <c r="CG127" s="14"/>
+      <c r="CH127" s="14"/>
+      <c r="CI127" s="14"/>
+      <c r="CJ127" s="14"/>
+      <c r="CK127" s="14"/>
+      <c r="CL127" s="14"/>
+      <c r="CM127" s="14"/>
+      <c r="CN127" s="14"/>
+      <c r="CO127" s="14"/>
+      <c r="CP127" s="14"/>
+      <c r="CQ127" s="13"/>
     </row>
-    <row r="128" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:95">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="14"/>
@@ -14410,9 +17053,19 @@
       <c r="CD128" s="14"/>
       <c r="CE128" s="14"/>
       <c r="CF128" s="14"/>
-      <c r="CG128" s="13"/>
+      <c r="CG128" s="14"/>
+      <c r="CH128" s="14"/>
+      <c r="CI128" s="14"/>
+      <c r="CJ128" s="14"/>
+      <c r="CK128" s="14"/>
+      <c r="CL128" s="14"/>
+      <c r="CM128" s="14"/>
+      <c r="CN128" s="14"/>
+      <c r="CO128" s="14"/>
+      <c r="CP128" s="14"/>
+      <c r="CQ128" s="13"/>
     </row>
-    <row r="129" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:95">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="14"/>
@@ -14497,9 +17150,19 @@
       <c r="CD129" s="14"/>
       <c r="CE129" s="14"/>
       <c r="CF129" s="14"/>
-      <c r="CG129" s="13"/>
+      <c r="CG129" s="14"/>
+      <c r="CH129" s="14"/>
+      <c r="CI129" s="14"/>
+      <c r="CJ129" s="14"/>
+      <c r="CK129" s="14"/>
+      <c r="CL129" s="14"/>
+      <c r="CM129" s="14"/>
+      <c r="CN129" s="14"/>
+      <c r="CO129" s="14"/>
+      <c r="CP129" s="14"/>
+      <c r="CQ129" s="13"/>
     </row>
-    <row r="130" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:95">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="14"/>
@@ -14584,9 +17247,19 @@
       <c r="CD130" s="14"/>
       <c r="CE130" s="14"/>
       <c r="CF130" s="14"/>
-      <c r="CG130" s="13"/>
+      <c r="CG130" s="14"/>
+      <c r="CH130" s="14"/>
+      <c r="CI130" s="14"/>
+      <c r="CJ130" s="14"/>
+      <c r="CK130" s="14"/>
+      <c r="CL130" s="14"/>
+      <c r="CM130" s="14"/>
+      <c r="CN130" s="14"/>
+      <c r="CO130" s="14"/>
+      <c r="CP130" s="14"/>
+      <c r="CQ130" s="13"/>
     </row>
-    <row r="131" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:95">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="14"/>
@@ -14671,9 +17344,19 @@
       <c r="CD131" s="14"/>
       <c r="CE131" s="14"/>
       <c r="CF131" s="14"/>
-      <c r="CG131" s="13"/>
+      <c r="CG131" s="14"/>
+      <c r="CH131" s="14"/>
+      <c r="CI131" s="14"/>
+      <c r="CJ131" s="14"/>
+      <c r="CK131" s="14"/>
+      <c r="CL131" s="14"/>
+      <c r="CM131" s="14"/>
+      <c r="CN131" s="14"/>
+      <c r="CO131" s="14"/>
+      <c r="CP131" s="14"/>
+      <c r="CQ131" s="13"/>
     </row>
-    <row r="132" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:95">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -14758,9 +17441,19 @@
       <c r="CD132" s="14"/>
       <c r="CE132" s="14"/>
       <c r="CF132" s="14"/>
-      <c r="CG132" s="13"/>
+      <c r="CG132" s="14"/>
+      <c r="CH132" s="14"/>
+      <c r="CI132" s="14"/>
+      <c r="CJ132" s="14"/>
+      <c r="CK132" s="14"/>
+      <c r="CL132" s="14"/>
+      <c r="CM132" s="14"/>
+      <c r="CN132" s="14"/>
+      <c r="CO132" s="14"/>
+      <c r="CP132" s="14"/>
+      <c r="CQ132" s="13"/>
     </row>
-    <row r="133" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:95">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="14"/>
@@ -14845,9 +17538,19 @@
       <c r="CD133" s="14"/>
       <c r="CE133" s="14"/>
       <c r="CF133" s="14"/>
-      <c r="CG133" s="13"/>
+      <c r="CG133" s="14"/>
+      <c r="CH133" s="14"/>
+      <c r="CI133" s="14"/>
+      <c r="CJ133" s="14"/>
+      <c r="CK133" s="14"/>
+      <c r="CL133" s="14"/>
+      <c r="CM133" s="14"/>
+      <c r="CN133" s="14"/>
+      <c r="CO133" s="14"/>
+      <c r="CP133" s="14"/>
+      <c r="CQ133" s="13"/>
     </row>
-    <row r="134" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:95">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="14"/>
@@ -14932,9 +17635,19 @@
       <c r="CD134" s="14"/>
       <c r="CE134" s="14"/>
       <c r="CF134" s="14"/>
-      <c r="CG134" s="13"/>
+      <c r="CG134" s="14"/>
+      <c r="CH134" s="14"/>
+      <c r="CI134" s="14"/>
+      <c r="CJ134" s="14"/>
+      <c r="CK134" s="14"/>
+      <c r="CL134" s="14"/>
+      <c r="CM134" s="14"/>
+      <c r="CN134" s="14"/>
+      <c r="CO134" s="14"/>
+      <c r="CP134" s="14"/>
+      <c r="CQ134" s="13"/>
     </row>
-    <row r="135" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:95">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="14"/>
@@ -15019,9 +17732,19 @@
       <c r="CD135" s="14"/>
       <c r="CE135" s="14"/>
       <c r="CF135" s="14"/>
-      <c r="CG135" s="13"/>
+      <c r="CG135" s="14"/>
+      <c r="CH135" s="14"/>
+      <c r="CI135" s="14"/>
+      <c r="CJ135" s="14"/>
+      <c r="CK135" s="14"/>
+      <c r="CL135" s="14"/>
+      <c r="CM135" s="14"/>
+      <c r="CN135" s="14"/>
+      <c r="CO135" s="14"/>
+      <c r="CP135" s="14"/>
+      <c r="CQ135" s="13"/>
     </row>
-    <row r="136" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:95">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="14"/>
@@ -15106,9 +17829,19 @@
       <c r="CD136" s="14"/>
       <c r="CE136" s="14"/>
       <c r="CF136" s="14"/>
-      <c r="CG136" s="13"/>
+      <c r="CG136" s="14"/>
+      <c r="CH136" s="14"/>
+      <c r="CI136" s="14"/>
+      <c r="CJ136" s="14"/>
+      <c r="CK136" s="14"/>
+      <c r="CL136" s="14"/>
+      <c r="CM136" s="14"/>
+      <c r="CN136" s="14"/>
+      <c r="CO136" s="14"/>
+      <c r="CP136" s="14"/>
+      <c r="CQ136" s="13"/>
     </row>
-    <row r="137" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:95">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
       <c r="C137" s="14"/>
@@ -15193,9 +17926,19 @@
       <c r="CD137" s="14"/>
       <c r="CE137" s="14"/>
       <c r="CF137" s="14"/>
-      <c r="CG137" s="13"/>
+      <c r="CG137" s="14"/>
+      <c r="CH137" s="14"/>
+      <c r="CI137" s="14"/>
+      <c r="CJ137" s="14"/>
+      <c r="CK137" s="14"/>
+      <c r="CL137" s="14"/>
+      <c r="CM137" s="14"/>
+      <c r="CN137" s="14"/>
+      <c r="CO137" s="14"/>
+      <c r="CP137" s="14"/>
+      <c r="CQ137" s="13"/>
     </row>
-    <row r="138" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:95">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
       <c r="C138" s="14"/>
@@ -15280,9 +18023,19 @@
       <c r="CD138" s="14"/>
       <c r="CE138" s="14"/>
       <c r="CF138" s="14"/>
-      <c r="CG138" s="13"/>
+      <c r="CG138" s="14"/>
+      <c r="CH138" s="14"/>
+      <c r="CI138" s="14"/>
+      <c r="CJ138" s="14"/>
+      <c r="CK138" s="14"/>
+      <c r="CL138" s="14"/>
+      <c r="CM138" s="14"/>
+      <c r="CN138" s="14"/>
+      <c r="CO138" s="14"/>
+      <c r="CP138" s="14"/>
+      <c r="CQ138" s="13"/>
     </row>
-    <row r="139" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:95">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
       <c r="C139" s="14"/>
@@ -15367,9 +18120,19 @@
       <c r="CD139" s="14"/>
       <c r="CE139" s="14"/>
       <c r="CF139" s="14"/>
-      <c r="CG139" s="13"/>
+      <c r="CG139" s="14"/>
+      <c r="CH139" s="14"/>
+      <c r="CI139" s="14"/>
+      <c r="CJ139" s="14"/>
+      <c r="CK139" s="14"/>
+      <c r="CL139" s="14"/>
+      <c r="CM139" s="14"/>
+      <c r="CN139" s="14"/>
+      <c r="CO139" s="14"/>
+      <c r="CP139" s="14"/>
+      <c r="CQ139" s="13"/>
     </row>
-    <row r="140" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:95">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
       <c r="C140" s="14"/>
@@ -15454,9 +18217,19 @@
       <c r="CD140" s="14"/>
       <c r="CE140" s="14"/>
       <c r="CF140" s="14"/>
-      <c r="CG140" s="13"/>
+      <c r="CG140" s="14"/>
+      <c r="CH140" s="14"/>
+      <c r="CI140" s="14"/>
+      <c r="CJ140" s="14"/>
+      <c r="CK140" s="14"/>
+      <c r="CL140" s="14"/>
+      <c r="CM140" s="14"/>
+      <c r="CN140" s="14"/>
+      <c r="CO140" s="14"/>
+      <c r="CP140" s="14"/>
+      <c r="CQ140" s="13"/>
     </row>
-    <row r="141" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:95">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
       <c r="C141" s="14"/>
@@ -15541,9 +18314,19 @@
       <c r="CD141" s="14"/>
       <c r="CE141" s="14"/>
       <c r="CF141" s="14"/>
-      <c r="CG141" s="13"/>
+      <c r="CG141" s="14"/>
+      <c r="CH141" s="14"/>
+      <c r="CI141" s="14"/>
+      <c r="CJ141" s="14"/>
+      <c r="CK141" s="14"/>
+      <c r="CL141" s="14"/>
+      <c r="CM141" s="14"/>
+      <c r="CN141" s="14"/>
+      <c r="CO141" s="14"/>
+      <c r="CP141" s="14"/>
+      <c r="CQ141" s="13"/>
     </row>
-    <row r="142" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:95">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
       <c r="C142" s="14"/>
@@ -15628,9 +18411,19 @@
       <c r="CD142" s="14"/>
       <c r="CE142" s="14"/>
       <c r="CF142" s="14"/>
-      <c r="CG142" s="13"/>
+      <c r="CG142" s="14"/>
+      <c r="CH142" s="14"/>
+      <c r="CI142" s="14"/>
+      <c r="CJ142" s="14"/>
+      <c r="CK142" s="14"/>
+      <c r="CL142" s="14"/>
+      <c r="CM142" s="14"/>
+      <c r="CN142" s="14"/>
+      <c r="CO142" s="14"/>
+      <c r="CP142" s="14"/>
+      <c r="CQ142" s="13"/>
     </row>
-    <row r="143" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:95">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
       <c r="C143" s="14"/>
@@ -15715,9 +18508,19 @@
       <c r="CD143" s="14"/>
       <c r="CE143" s="14"/>
       <c r="CF143" s="14"/>
-      <c r="CG143" s="13"/>
+      <c r="CG143" s="14"/>
+      <c r="CH143" s="14"/>
+      <c r="CI143" s="14"/>
+      <c r="CJ143" s="14"/>
+      <c r="CK143" s="14"/>
+      <c r="CL143" s="14"/>
+      <c r="CM143" s="14"/>
+      <c r="CN143" s="14"/>
+      <c r="CO143" s="14"/>
+      <c r="CP143" s="14"/>
+      <c r="CQ143" s="13"/>
     </row>
-    <row r="144" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:95">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
       <c r="C144" s="14"/>
@@ -15802,9 +18605,19 @@
       <c r="CD144" s="14"/>
       <c r="CE144" s="14"/>
       <c r="CF144" s="14"/>
-      <c r="CG144" s="13"/>
+      <c r="CG144" s="14"/>
+      <c r="CH144" s="14"/>
+      <c r="CI144" s="14"/>
+      <c r="CJ144" s="14"/>
+      <c r="CK144" s="14"/>
+      <c r="CL144" s="14"/>
+      <c r="CM144" s="14"/>
+      <c r="CN144" s="14"/>
+      <c r="CO144" s="14"/>
+      <c r="CP144" s="14"/>
+      <c r="CQ144" s="13"/>
     </row>
-    <row r="145" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:95">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
       <c r="C145" s="14"/>
@@ -15889,9 +18702,19 @@
       <c r="CD145" s="14"/>
       <c r="CE145" s="14"/>
       <c r="CF145" s="14"/>
-      <c r="CG145" s="13"/>
+      <c r="CG145" s="14"/>
+      <c r="CH145" s="14"/>
+      <c r="CI145" s="14"/>
+      <c r="CJ145" s="14"/>
+      <c r="CK145" s="14"/>
+      <c r="CL145" s="14"/>
+      <c r="CM145" s="14"/>
+      <c r="CN145" s="14"/>
+      <c r="CO145" s="14"/>
+      <c r="CP145" s="14"/>
+      <c r="CQ145" s="13"/>
     </row>
-    <row r="146" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:95">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
@@ -15976,9 +18799,19 @@
       <c r="CD146" s="14"/>
       <c r="CE146" s="14"/>
       <c r="CF146" s="14"/>
-      <c r="CG146" s="13"/>
+      <c r="CG146" s="14"/>
+      <c r="CH146" s="14"/>
+      <c r="CI146" s="14"/>
+      <c r="CJ146" s="14"/>
+      <c r="CK146" s="14"/>
+      <c r="CL146" s="14"/>
+      <c r="CM146" s="14"/>
+      <c r="CN146" s="14"/>
+      <c r="CO146" s="14"/>
+      <c r="CP146" s="14"/>
+      <c r="CQ146" s="13"/>
     </row>
-    <row r="147" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:95">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
       <c r="C147" s="14"/>
@@ -16063,9 +18896,19 @@
       <c r="CD147" s="14"/>
       <c r="CE147" s="14"/>
       <c r="CF147" s="14"/>
-      <c r="CG147" s="13"/>
+      <c r="CG147" s="14"/>
+      <c r="CH147" s="14"/>
+      <c r="CI147" s="14"/>
+      <c r="CJ147" s="14"/>
+      <c r="CK147" s="14"/>
+      <c r="CL147" s="14"/>
+      <c r="CM147" s="14"/>
+      <c r="CN147" s="14"/>
+      <c r="CO147" s="14"/>
+      <c r="CP147" s="14"/>
+      <c r="CQ147" s="13"/>
     </row>
-    <row r="148" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:95">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
       <c r="C148" s="14"/>
@@ -16150,9 +18993,19 @@
       <c r="CD148" s="14"/>
       <c r="CE148" s="14"/>
       <c r="CF148" s="14"/>
-      <c r="CG148" s="13"/>
+      <c r="CG148" s="14"/>
+      <c r="CH148" s="14"/>
+      <c r="CI148" s="14"/>
+      <c r="CJ148" s="14"/>
+      <c r="CK148" s="14"/>
+      <c r="CL148" s="14"/>
+      <c r="CM148" s="14"/>
+      <c r="CN148" s="14"/>
+      <c r="CO148" s="14"/>
+      <c r="CP148" s="14"/>
+      <c r="CQ148" s="13"/>
     </row>
-    <row r="149" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:95">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -16237,9 +19090,19 @@
       <c r="CD149" s="14"/>
       <c r="CE149" s="14"/>
       <c r="CF149" s="14"/>
-      <c r="CG149" s="13"/>
+      <c r="CG149" s="14"/>
+      <c r="CH149" s="14"/>
+      <c r="CI149" s="14"/>
+      <c r="CJ149" s="14"/>
+      <c r="CK149" s="14"/>
+      <c r="CL149" s="14"/>
+      <c r="CM149" s="14"/>
+      <c r="CN149" s="14"/>
+      <c r="CO149" s="14"/>
+      <c r="CP149" s="14"/>
+      <c r="CQ149" s="13"/>
     </row>
-    <row r="150" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:95">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
@@ -16324,9 +19187,19 @@
       <c r="CD150" s="14"/>
       <c r="CE150" s="14"/>
       <c r="CF150" s="14"/>
-      <c r="CG150" s="13"/>
+      <c r="CG150" s="14"/>
+      <c r="CH150" s="14"/>
+      <c r="CI150" s="14"/>
+      <c r="CJ150" s="14"/>
+      <c r="CK150" s="14"/>
+      <c r="CL150" s="14"/>
+      <c r="CM150" s="14"/>
+      <c r="CN150" s="14"/>
+      <c r="CO150" s="14"/>
+      <c r="CP150" s="14"/>
+      <c r="CQ150" s="13"/>
     </row>
-    <row r="151" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:95">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
@@ -16411,9 +19284,19 @@
       <c r="CD151" s="14"/>
       <c r="CE151" s="14"/>
       <c r="CF151" s="14"/>
-      <c r="CG151" s="13"/>
+      <c r="CG151" s="14"/>
+      <c r="CH151" s="14"/>
+      <c r="CI151" s="14"/>
+      <c r="CJ151" s="14"/>
+      <c r="CK151" s="14"/>
+      <c r="CL151" s="14"/>
+      <c r="CM151" s="14"/>
+      <c r="CN151" s="14"/>
+      <c r="CO151" s="14"/>
+      <c r="CP151" s="14"/>
+      <c r="CQ151" s="13"/>
     </row>
-    <row r="152" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:95">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
@@ -16498,9 +19381,19 @@
       <c r="CD152" s="14"/>
       <c r="CE152" s="14"/>
       <c r="CF152" s="14"/>
-      <c r="CG152" s="13"/>
+      <c r="CG152" s="14"/>
+      <c r="CH152" s="14"/>
+      <c r="CI152" s="14"/>
+      <c r="CJ152" s="14"/>
+      <c r="CK152" s="14"/>
+      <c r="CL152" s="14"/>
+      <c r="CM152" s="14"/>
+      <c r="CN152" s="14"/>
+      <c r="CO152" s="14"/>
+      <c r="CP152" s="14"/>
+      <c r="CQ152" s="13"/>
     </row>
-    <row r="153" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:95">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
@@ -16585,9 +19478,19 @@
       <c r="CD153" s="14"/>
       <c r="CE153" s="14"/>
       <c r="CF153" s="14"/>
-      <c r="CG153" s="13"/>
+      <c r="CG153" s="14"/>
+      <c r="CH153" s="14"/>
+      <c r="CI153" s="14"/>
+      <c r="CJ153" s="14"/>
+      <c r="CK153" s="14"/>
+      <c r="CL153" s="14"/>
+      <c r="CM153" s="14"/>
+      <c r="CN153" s="14"/>
+      <c r="CO153" s="14"/>
+      <c r="CP153" s="14"/>
+      <c r="CQ153" s="13"/>
     </row>
-    <row r="154" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:95">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
@@ -16672,9 +19575,19 @@
       <c r="CD154" s="14"/>
       <c r="CE154" s="14"/>
       <c r="CF154" s="14"/>
-      <c r="CG154" s="13"/>
+      <c r="CG154" s="14"/>
+      <c r="CH154" s="14"/>
+      <c r="CI154" s="14"/>
+      <c r="CJ154" s="14"/>
+      <c r="CK154" s="14"/>
+      <c r="CL154" s="14"/>
+      <c r="CM154" s="14"/>
+      <c r="CN154" s="14"/>
+      <c r="CO154" s="14"/>
+      <c r="CP154" s="14"/>
+      <c r="CQ154" s="13"/>
     </row>
-    <row r="155" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:95">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
@@ -16759,9 +19672,19 @@
       <c r="CD155" s="14"/>
       <c r="CE155" s="14"/>
       <c r="CF155" s="14"/>
-      <c r="CG155" s="13"/>
+      <c r="CG155" s="14"/>
+      <c r="CH155" s="14"/>
+      <c r="CI155" s="14"/>
+      <c r="CJ155" s="14"/>
+      <c r="CK155" s="14"/>
+      <c r="CL155" s="14"/>
+      <c r="CM155" s="14"/>
+      <c r="CN155" s="14"/>
+      <c r="CO155" s="14"/>
+      <c r="CP155" s="14"/>
+      <c r="CQ155" s="13"/>
     </row>
-    <row r="156" spans="1:85" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:95">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
@@ -16846,27 +19769,39 @@
       <c r="CD156" s="14"/>
       <c r="CE156" s="14"/>
       <c r="CF156" s="14"/>
-      <c r="CG156" s="13" t="e">
-        <f>+BD142BH32BD14A32:CG156</f>
+      <c r="CG156" s="14"/>
+      <c r="CH156" s="14"/>
+      <c r="CI156" s="14"/>
+      <c r="CJ156" s="14"/>
+      <c r="CK156" s="14"/>
+      <c r="CL156" s="14"/>
+      <c r="CM156" s="14"/>
+      <c r="CN156" s="14"/>
+      <c r="CO156" s="14"/>
+      <c r="CP156" s="14"/>
+      <c r="CQ156" s="13" t="e">
+        <f>+BD142BH32BD14A32:CQ156</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{2CEDB497-1C75-445B-9117-CDF568D5A69C}"/>
-    <hyperlink ref="AD3" r:id="rId2" xr:uid="{F1760FE2-A037-4D5F-AE8E-FB5978F4542C}"/>
-    <hyperlink ref="AI2" r:id="rId3" xr:uid="{D102F116-2C77-458F-89BE-BB40C90DBD6A}"/>
+    <hyperlink ref="AI3" r:id="rId2" xr:uid="{F1760FE2-A037-4D5F-AE8E-FB5978F4542C}"/>
+    <hyperlink ref="AN2" r:id="rId3" xr:uid="{D102F116-2C77-458F-89BE-BB40C90DBD6A}"/>
     <hyperlink ref="F14" r:id="rId4" xr:uid="{8488768D-DC1F-4B00-8952-9670F39191EC}"/>
-    <hyperlink ref="AD19" r:id="rId5" xr:uid="{623DB8D8-A0C3-4D30-AF64-F80AD27D8D84}"/>
+    <hyperlink ref="AI19" r:id="rId5" xr:uid="{623DB8D8-A0C3-4D30-AF64-F80AD27D8D84}"/>
     <hyperlink ref="F32" r:id="rId6" xr:uid="{F88C59D1-6AE7-4E0E-93EC-285A2FE1FE14}"/>
     <hyperlink ref="F43" r:id="rId7" xr:uid="{DA161413-8A41-4794-8677-EC86B2843D5E}"/>
-    <hyperlink ref="AD43" r:id="rId8" xr:uid="{A229031A-6F65-48A6-A501-965185B8A39A}"/>
+    <hyperlink ref="AI43" r:id="rId8" xr:uid="{A229031A-6F65-48A6-A501-965185B8A39A}"/>
     <hyperlink ref="F45" r:id="rId9" xr:uid="{80F95EB2-C73D-4063-AF97-1565C2285F8B}"/>
-    <hyperlink ref="AD47" r:id="rId10" xr:uid="{CBE8AE56-2F2E-4ADE-8039-14A3E4AEC364}"/>
-    <hyperlink ref="AD48" r:id="rId11" display="https://www.wikidata.org/wiki/Q23444" xr:uid="{4F7C7EBD-AED6-443D-8119-AA5BEF83D5CF}"/>
-    <hyperlink ref="AD49" r:id="rId12" display="https://www.wikidata.org/wiki/Q23444" xr:uid="{C549BF99-31E0-4333-8FD4-09F636EDF7B0}"/>
+    <hyperlink ref="AI47" r:id="rId10" xr:uid="{CBE8AE56-2F2E-4ADE-8039-14A3E4AEC364}"/>
+    <hyperlink ref="AI48" r:id="rId11" display="https://www.wikidata.org/wiki/Q23444" xr:uid="{4F7C7EBD-AED6-443D-8119-AA5BEF83D5CF}"/>
+    <hyperlink ref="AI49" r:id="rId12" display="https://www.wikidata.org/wiki/Q23444" xr:uid="{C549BF99-31E0-4333-8FD4-09F636EDF7B0}"/>
+    <hyperlink ref="AI58" r:id="rId13" xr:uid="{ED299668-60E4-408D-B924-D487B3F98E4B}"/>
+    <hyperlink ref="F84" r:id="rId14" xr:uid="{C9FE8584-9BFA-4B54-A479-EA0C07D06A50}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>